--- a/属性項目対応表.xlsx
+++ b/属性項目対応表.xlsx
@@ -105,7 +105,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="675">
   <si>
     <t>◆属性項目対応表</t>
   </si>
@@ -356,9 +356,6 @@
   </si>
   <si>
     <t>FILM CAPACITORS</t>
-  </si>
-  <si>
-    <t>フイルムコンデンサ</t>
   </si>
   <si>
     <t>フィルムコンデンサ</t>
@@ -4776,7 +4773,7 @@
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G36" s="29"/>
       <c r="H36" s="34"/>
@@ -4799,11 +4796,11 @@
       <c r="B37" s="32"/>
       <c r="C37" s="29"/>
       <c r="D37" s="45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E37" s="27"/>
       <c r="F37" s="26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G37" s="28" t="s">
         <v>39</v>
@@ -4834,11 +4831,11 @@
       <c r="B38" s="32"/>
       <c r="C38" s="29"/>
       <c r="D38" s="46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E38" s="33"/>
       <c r="F38" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G38" s="29"/>
       <c r="H38" s="34"/>
@@ -4861,11 +4858,11 @@
       <c r="B39" s="32"/>
       <c r="C39" s="29"/>
       <c r="D39" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E39" s="27"/>
       <c r="F39" s="26" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G39" s="28" t="s">
         <v>39</v>
@@ -4896,11 +4893,11 @@
       <c r="B40" s="32"/>
       <c r="C40" s="29"/>
       <c r="D40" s="46" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E40" s="33"/>
       <c r="F40" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G40" s="29"/>
       <c r="H40" s="34"/>
@@ -4922,15 +4919,15 @@
     <row r="41" ht="28.8" spans="2:22">
       <c r="B41" s="32"/>
       <c r="C41" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41" s="47"/>
       <c r="E41" s="48"/>
       <c r="F41" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G41" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="G41" s="28" t="s">
-        <v>90</v>
       </c>
       <c r="H41" s="49"/>
       <c r="I41" s="49"/>
@@ -4955,12 +4952,12 @@
     <row r="42" ht="16.2" spans="2:22">
       <c r="B42" s="32"/>
       <c r="C42" s="31" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D42" s="47"/>
       <c r="E42" s="33"/>
       <c r="F42" s="34" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G42" s="29"/>
       <c r="H42" s="34"/>
@@ -5004,16 +5001,16 @@
     </row>
     <row r="44" ht="16.8" spans="1:22">
       <c r="A44" s="51" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="42" t="s">
         <v>92</v>
-      </c>
-      <c r="B44" s="42" t="s">
-        <v>93</v>
       </c>
       <c r="C44" s="29"/>
       <c r="D44" s="47"/>
       <c r="E44" s="27"/>
       <c r="F44" s="26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G44" s="29" t="s">
         <v>59</v>
@@ -5029,7 +5026,7 @@
       <c r="P44" s="29"/>
       <c r="Q44" s="29"/>
       <c r="R44" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="S44" s="29"/>
       <c r="T44" s="29"/>
@@ -5038,13 +5035,13 @@
     </row>
     <row r="45" ht="16.2" spans="2:22">
       <c r="B45" s="30" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="47"/>
       <c r="E45" s="33"/>
       <c r="F45" s="44" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G45" s="52"/>
       <c r="H45" s="34"/>
@@ -5088,16 +5085,16 @@
     </row>
     <row r="47" ht="28.8" spans="1:22">
       <c r="A47" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B47" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="29"/>
       <c r="D47" s="32"/>
       <c r="E47" s="27"/>
       <c r="F47" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G47" s="29" t="s">
         <v>59</v>
@@ -5122,13 +5119,13 @@
     </row>
     <row r="48" spans="2:22">
       <c r="B48" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C48" s="29"/>
       <c r="D48" s="32"/>
       <c r="E48" s="33"/>
       <c r="F48" s="44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G48" s="29"/>
       <c r="H48" s="34"/>
@@ -5172,16 +5169,16 @@
     </row>
     <row r="50" ht="43.2" spans="2:22">
       <c r="B50" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C50" s="29"/>
       <c r="D50" s="32"/>
       <c r="E50" s="27"/>
       <c r="F50" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="G50" s="29" t="s">
         <v>98</v>
-      </c>
-      <c r="G50" s="29" t="s">
-        <v>99</v>
       </c>
       <c r="H50" s="29"/>
       <c r="I50" s="29"/>
@@ -5189,16 +5186,16 @@
       <c r="K50" s="29"/>
       <c r="L50" s="29"/>
       <c r="M50" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="N50" s="29" t="s">
         <v>100</v>
-      </c>
-      <c r="N50" s="29" t="s">
-        <v>101</v>
       </c>
       <c r="O50" s="29"/>
       <c r="P50" s="29"/>
       <c r="Q50" s="29"/>
       <c r="R50" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S50" s="29"/>
       <c r="T50" s="29"/>
@@ -5207,13 +5204,13 @@
     </row>
     <row r="51" ht="28.8" spans="2:22">
       <c r="B51" s="30" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="29"/>
       <c r="D51" s="32"/>
       <c r="E51" s="33"/>
       <c r="F51" s="44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G51" s="29"/>
       <c r="H51" s="34"/>
@@ -5257,18 +5254,18 @@
     </row>
     <row r="53" ht="28.8" spans="2:22">
       <c r="B53" s="42" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="25" t="s">
         <v>104</v>
-      </c>
-      <c r="C53" s="25" t="s">
-        <v>105</v>
       </c>
       <c r="D53" s="26"/>
       <c r="E53" s="27"/>
       <c r="F53" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G53" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H53" s="29"/>
       <c r="I53" s="29"/>
@@ -5283,7 +5280,7 @@
       <c r="P53" s="29"/>
       <c r="Q53" s="29"/>
       <c r="R53" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S53" s="29"/>
       <c r="T53" s="29"/>
@@ -5292,15 +5289,15 @@
     </row>
     <row r="54" ht="28.8" spans="2:22">
       <c r="B54" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="31" t="s">
         <v>106</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>107</v>
       </c>
       <c r="D54" s="32"/>
       <c r="E54" s="33"/>
       <c r="F54" s="34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G54" s="34"/>
       <c r="H54" s="34"/>
@@ -5322,15 +5319,15 @@
     <row r="55" ht="28.8" spans="2:22">
       <c r="B55" s="32"/>
       <c r="C55" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D55" s="26"/>
       <c r="E55" s="27"/>
       <c r="F55" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G55" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H55" s="29"/>
       <c r="I55" s="29"/>
@@ -5343,7 +5340,7 @@
       <c r="P55" s="29"/>
       <c r="Q55" s="29"/>
       <c r="R55" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S55" s="29"/>
       <c r="T55" s="29"/>
@@ -5353,12 +5350,12 @@
     <row r="56" spans="2:22">
       <c r="B56" s="32"/>
       <c r="C56" s="43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D56" s="32"/>
       <c r="E56" s="33"/>
       <c r="F56" s="34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G56" s="29"/>
       <c r="H56" s="34"/>
@@ -5402,18 +5399,18 @@
     </row>
     <row r="58" spans="2:22">
       <c r="B58" s="42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C58" s="25" t="s">
         <v>110</v>
-      </c>
-      <c r="C58" s="25" t="s">
-        <v>111</v>
       </c>
       <c r="D58" s="26"/>
       <c r="E58" s="27"/>
       <c r="F58" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="G58" s="29" t="s">
         <v>111</v>
-      </c>
-      <c r="G58" s="29" t="s">
-        <v>112</v>
       </c>
       <c r="H58" s="29"/>
       <c r="I58" s="29"/>
@@ -5426,7 +5423,7 @@
       <c r="P58" s="29"/>
       <c r="Q58" s="29"/>
       <c r="R58" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="S58" s="29"/>
       <c r="T58" s="29"/>
@@ -5435,15 +5432,15 @@
     </row>
     <row r="59" spans="2:22">
       <c r="B59" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="C59" s="31" t="s">
         <v>113</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>114</v>
       </c>
       <c r="D59" s="32"/>
       <c r="E59" s="33"/>
       <c r="F59" s="34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G59" s="29"/>
       <c r="H59" s="34"/>
@@ -5487,18 +5484,18 @@
     </row>
     <row r="61" ht="16.8" spans="1:22">
       <c r="A61" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B61" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="25" t="s">
         <v>115</v>
-      </c>
-      <c r="C61" s="25" t="s">
-        <v>116</v>
       </c>
       <c r="D61" s="26"/>
       <c r="E61" s="27"/>
       <c r="F61" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G61" s="28" t="s">
         <v>59</v>
@@ -5514,7 +5511,7 @@
       <c r="P61" s="29"/>
       <c r="Q61" s="29"/>
       <c r="R61" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S61" s="29"/>
       <c r="T61" s="29"/>
@@ -5523,15 +5520,15 @@
     </row>
     <row r="62" spans="2:22">
       <c r="B62" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C62" s="31" t="s">
         <v>118</v>
-      </c>
-      <c r="C62" s="31" t="s">
-        <v>119</v>
       </c>
       <c r="D62" s="32"/>
       <c r="E62" s="33"/>
       <c r="F62" s="34" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G62" s="29"/>
       <c r="H62" s="34"/>
@@ -5553,12 +5550,12 @@
     <row r="63" spans="2:22">
       <c r="B63" s="32"/>
       <c r="C63" s="53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D63" s="26"/>
       <c r="E63" s="27"/>
       <c r="F63" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G63" s="28" t="s">
         <v>59</v>
@@ -5574,7 +5571,7 @@
       <c r="P63" s="29"/>
       <c r="Q63" s="29"/>
       <c r="R63" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S63" s="29"/>
       <c r="T63" s="29"/>
@@ -5584,12 +5581,12 @@
     <row r="64" spans="2:22">
       <c r="B64" s="32"/>
       <c r="C64" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D64" s="32"/>
       <c r="E64" s="33"/>
       <c r="F64" s="34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G64" s="29"/>
       <c r="H64" s="34"/>
@@ -5633,16 +5630,16 @@
     </row>
     <row r="66" ht="16.8" spans="1:22">
       <c r="A66" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B66" s="42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C66" s="29"/>
       <c r="D66" s="32"/>
       <c r="E66" s="27"/>
       <c r="F66" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G66" s="29" t="s">
         <v>59</v>
@@ -5667,13 +5664,13 @@
     </row>
     <row r="67" spans="2:22">
       <c r="B67" s="30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C67" s="29"/>
       <c r="D67" s="32"/>
       <c r="E67" s="33"/>
       <c r="F67" s="44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G67" s="29"/>
       <c r="H67" s="34"/>
@@ -5717,16 +5714,16 @@
     </row>
     <row r="69" ht="28.8" spans="1:22">
       <c r="A69" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B69" s="42" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C69" s="29"/>
       <c r="D69" s="32"/>
       <c r="E69" s="27"/>
       <c r="F69" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G69" s="29" t="s">
         <v>59</v>
@@ -5751,13 +5748,13 @@
     </row>
     <row r="70" spans="2:22">
       <c r="B70" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C70" s="29"/>
       <c r="D70" s="32"/>
       <c r="E70" s="33"/>
       <c r="F70" s="44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G70" s="29"/>
       <c r="H70" s="34"/>
@@ -5801,13 +5798,13 @@
     </row>
     <row r="72" ht="28.8" spans="2:22">
       <c r="B72" s="42" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C72" s="29"/>
       <c r="D72" s="32"/>
       <c r="E72" s="27"/>
       <c r="F72" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G72" s="29" t="s">
         <v>59</v>
@@ -5823,7 +5820,7 @@
       <c r="P72" s="29"/>
       <c r="Q72" s="29"/>
       <c r="R72" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S72" s="29"/>
       <c r="T72" s="29"/>
@@ -5832,13 +5829,13 @@
     </row>
     <row r="73" spans="2:22">
       <c r="B73" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C73" s="29"/>
       <c r="D73" s="32"/>
       <c r="E73" s="33"/>
       <c r="F73" s="44" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G73" s="29"/>
       <c r="H73" s="34"/>
@@ -5882,17 +5879,17 @@
     </row>
     <row r="75" spans="2:22">
       <c r="B75" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C75" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C75" s="25" t="s">
+      <c r="D75" s="45" t="s">
         <v>130</v>
-      </c>
-      <c r="D75" s="45" t="s">
-        <v>131</v>
       </c>
       <c r="E75" s="27"/>
       <c r="F75" s="26" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G75" s="28" t="s">
         <v>59</v>
@@ -5908,7 +5905,7 @@
       <c r="P75" s="29"/>
       <c r="Q75" s="29"/>
       <c r="R75" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S75" s="29"/>
       <c r="T75" s="29"/>
@@ -5917,17 +5914,17 @@
     </row>
     <row r="76" spans="2:22">
       <c r="B76" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="C76" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C76" s="31" t="s">
+      <c r="D76" s="46" t="s">
         <v>134</v>
-      </c>
-      <c r="D76" s="46" t="s">
-        <v>135</v>
       </c>
       <c r="E76" s="33"/>
       <c r="F76" s="44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G76" s="29"/>
       <c r="H76" s="34"/>
@@ -5950,11 +5947,11 @@
       <c r="B77" s="32"/>
       <c r="C77" s="29"/>
       <c r="D77" s="45" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E77" s="27"/>
       <c r="F77" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G77" s="28" t="s">
         <v>59</v>
@@ -5970,7 +5967,7 @@
       <c r="P77" s="29"/>
       <c r="Q77" s="29"/>
       <c r="R77" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S77" s="29"/>
       <c r="T77" s="29"/>
@@ -5981,11 +5978,11 @@
       <c r="B78" s="32"/>
       <c r="C78" s="29"/>
       <c r="D78" s="46" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E78" s="33"/>
       <c r="F78" s="44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G78" s="29"/>
       <c r="H78" s="34"/>
@@ -6008,11 +6005,11 @@
       <c r="B79" s="32"/>
       <c r="C79" s="29"/>
       <c r="D79" s="45" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E79" s="27"/>
       <c r="F79" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G79" s="28" t="s">
         <v>59</v>
@@ -6028,7 +6025,7 @@
       <c r="P79" s="29"/>
       <c r="Q79" s="29"/>
       <c r="R79" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S79" s="29"/>
       <c r="T79" s="29"/>
@@ -6039,11 +6036,11 @@
       <c r="B80" s="32"/>
       <c r="C80" s="29"/>
       <c r="D80" s="46" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E80" s="33"/>
       <c r="F80" s="44" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G80" s="29"/>
       <c r="H80" s="34"/>
@@ -6066,11 +6063,11 @@
       <c r="B81" s="32"/>
       <c r="C81" s="29"/>
       <c r="D81" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E81" s="27"/>
       <c r="F81" s="26" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G81" s="28" t="s">
         <v>59</v>
@@ -6086,7 +6083,7 @@
       <c r="P81" s="29"/>
       <c r="Q81" s="29"/>
       <c r="R81" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S81" s="29"/>
       <c r="T81" s="29"/>
@@ -6097,11 +6094,11 @@
       <c r="B82" s="32"/>
       <c r="C82" s="29"/>
       <c r="D82" s="46" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E82" s="33"/>
       <c r="F82" s="44" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G82" s="29"/>
       <c r="H82" s="34"/>
@@ -6124,11 +6121,11 @@
       <c r="B83" s="32"/>
       <c r="C83" s="29"/>
       <c r="D83" s="45" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E83" s="27"/>
       <c r="F83" s="26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G83" s="28" t="s">
         <v>59</v>
@@ -6144,7 +6141,7 @@
       <c r="P83" s="29"/>
       <c r="Q83" s="29"/>
       <c r="R83" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S83" s="29"/>
       <c r="T83" s="29"/>
@@ -6155,11 +6152,11 @@
       <c r="B84" s="32"/>
       <c r="C84" s="29"/>
       <c r="D84" s="62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E84" s="33"/>
       <c r="F84" s="44" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G84" s="29"/>
       <c r="H84" s="34"/>
@@ -6182,11 +6179,11 @@
       <c r="B85" s="32"/>
       <c r="C85" s="29"/>
       <c r="D85" s="45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E85" s="27"/>
       <c r="F85" s="26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G85" s="28" t="s">
         <v>59</v>
@@ -6202,7 +6199,7 @@
       <c r="P85" s="29"/>
       <c r="Q85" s="29"/>
       <c r="R85" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S85" s="29"/>
       <c r="T85" s="29"/>
@@ -6213,11 +6210,11 @@
       <c r="B86" s="32"/>
       <c r="C86" s="29"/>
       <c r="D86" s="46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E86" s="33"/>
       <c r="F86" s="44" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G86" s="29"/>
       <c r="H86" s="34"/>
@@ -6240,11 +6237,11 @@
       <c r="B87" s="32"/>
       <c r="C87" s="29"/>
       <c r="D87" s="45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E87" s="27"/>
       <c r="F87" s="26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G87" s="28" t="s">
         <v>59</v>
@@ -6260,7 +6257,7 @@
       <c r="P87" s="29"/>
       <c r="Q87" s="29"/>
       <c r="R87" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S87" s="29"/>
       <c r="T87" s="29"/>
@@ -6271,11 +6268,11 @@
       <c r="B88" s="32"/>
       <c r="C88" s="29"/>
       <c r="D88" s="46" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E88" s="33"/>
       <c r="F88" s="44" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G88" s="29"/>
       <c r="H88" s="34"/>
@@ -6298,11 +6295,11 @@
       <c r="B89" s="32"/>
       <c r="C89" s="29"/>
       <c r="D89" s="45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E89" s="27"/>
       <c r="F89" s="26" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G89" s="28" t="s">
         <v>59</v>
@@ -6318,7 +6315,7 @@
       <c r="P89" s="29"/>
       <c r="Q89" s="29"/>
       <c r="R89" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S89" s="29"/>
       <c r="T89" s="29"/>
@@ -6329,11 +6326,11 @@
       <c r="B90" s="32"/>
       <c r="C90" s="29"/>
       <c r="D90" s="62" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E90" s="33"/>
       <c r="F90" s="44" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G90" s="29"/>
       <c r="H90" s="34"/>
@@ -6356,11 +6353,11 @@
       <c r="B91" s="32"/>
       <c r="C91" s="29"/>
       <c r="D91" s="45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E91" s="27"/>
       <c r="F91" s="26" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G91" s="28" t="s">
         <v>59</v>
@@ -6376,7 +6373,7 @@
       <c r="P91" s="29"/>
       <c r="Q91" s="29"/>
       <c r="R91" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S91" s="29"/>
       <c r="T91" s="29"/>
@@ -6387,11 +6384,11 @@
       <c r="B92" s="32"/>
       <c r="C92" s="29"/>
       <c r="D92" s="62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E92" s="33"/>
       <c r="F92" s="44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G92" s="29"/>
       <c r="H92" s="34"/>
@@ -6414,11 +6411,11 @@
       <c r="B93" s="32"/>
       <c r="C93" s="29"/>
       <c r="D93" s="45" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E93" s="27"/>
       <c r="F93" s="26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G93" s="28" t="s">
         <v>59</v>
@@ -6434,7 +6431,7 @@
       <c r="P93" s="29"/>
       <c r="Q93" s="29"/>
       <c r="R93" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S93" s="29"/>
       <c r="T93" s="29"/>
@@ -6445,11 +6442,11 @@
       <c r="B94" s="32"/>
       <c r="C94" s="29"/>
       <c r="D94" s="46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E94" s="33"/>
       <c r="F94" s="44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G94" s="29"/>
       <c r="H94" s="34"/>
@@ -6472,11 +6469,11 @@
       <c r="B95" s="32"/>
       <c r="C95" s="29"/>
       <c r="D95" s="45" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E95" s="27"/>
       <c r="F95" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G95" s="28" t="s">
         <v>59</v>
@@ -6492,7 +6489,7 @@
       <c r="P95" s="29"/>
       <c r="Q95" s="29"/>
       <c r="R95" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S95" s="29"/>
       <c r="T95" s="29"/>
@@ -6503,11 +6500,11 @@
       <c r="B96" s="32"/>
       <c r="C96" s="29"/>
       <c r="D96" s="62" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E96" s="33"/>
       <c r="F96" s="44" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G96" s="29"/>
       <c r="H96" s="34"/>
@@ -6530,11 +6527,11 @@
       <c r="B97" s="32"/>
       <c r="C97" s="29"/>
       <c r="D97" s="45" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E97" s="27"/>
       <c r="F97" s="26" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G97" s="28" t="s">
         <v>59</v>
@@ -6550,7 +6547,7 @@
       <c r="P97" s="29"/>
       <c r="Q97" s="29"/>
       <c r="R97" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S97" s="29"/>
       <c r="T97" s="29"/>
@@ -6561,11 +6558,11 @@
       <c r="B98" s="32"/>
       <c r="C98" s="29"/>
       <c r="D98" s="62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E98" s="33"/>
       <c r="F98" s="44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G98" s="29"/>
       <c r="H98" s="34"/>
@@ -6587,12 +6584,12 @@
     <row r="99" spans="2:22">
       <c r="B99" s="32"/>
       <c r="C99" s="25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D99" s="32"/>
       <c r="E99" s="27"/>
       <c r="F99" s="28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G99" s="28" t="s">
         <v>59</v>
@@ -6608,7 +6605,7 @@
       <c r="P99" s="29"/>
       <c r="Q99" s="29"/>
       <c r="R99" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S99" s="29"/>
       <c r="T99" s="29"/>
@@ -6618,12 +6615,12 @@
     <row r="100" spans="2:22">
       <c r="B100" s="32"/>
       <c r="C100" s="43" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D100" s="32"/>
       <c r="E100" s="33"/>
       <c r="F100" s="34" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G100" s="29"/>
       <c r="H100" s="34"/>
@@ -6645,12 +6642,12 @@
     <row r="101" spans="2:22">
       <c r="B101" s="32"/>
       <c r="C101" s="25" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D101" s="26"/>
       <c r="E101" s="27"/>
       <c r="F101" s="28" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G101" s="28" t="s">
         <v>59</v>
@@ -6666,7 +6663,7 @@
       <c r="P101" s="29"/>
       <c r="Q101" s="29"/>
       <c r="R101" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S101" s="29"/>
       <c r="T101" s="29"/>
@@ -6676,12 +6673,12 @@
     <row r="102" spans="2:22">
       <c r="B102" s="32"/>
       <c r="C102" s="43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D102" s="32"/>
       <c r="E102" s="33"/>
       <c r="F102" s="34" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G102" s="29"/>
       <c r="H102" s="34"/>
@@ -6703,12 +6700,12 @@
     <row r="103" ht="28.8" spans="2:22">
       <c r="B103" s="32"/>
       <c r="C103" s="25" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D103" s="26"/>
       <c r="E103" s="27"/>
       <c r="F103" s="28" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G103" s="28" t="s">
         <v>59</v>
@@ -6724,7 +6721,7 @@
       <c r="P103" s="29"/>
       <c r="Q103" s="29"/>
       <c r="R103" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S103" s="29"/>
       <c r="T103" s="29"/>
@@ -6734,12 +6731,12 @@
     <row r="104" spans="2:22">
       <c r="B104" s="32"/>
       <c r="C104" s="43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D104" s="32"/>
       <c r="E104" s="33"/>
       <c r="F104" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G104" s="29"/>
       <c r="H104" s="34"/>
@@ -6783,17 +6780,17 @@
     </row>
     <row r="106" spans="2:22">
       <c r="B106" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C106" s="25" t="s">
         <v>164</v>
       </c>
-      <c r="C106" s="25" t="s">
+      <c r="D106" s="45" t="s">
         <v>165</v>
-      </c>
-      <c r="D106" s="45" t="s">
-        <v>166</v>
       </c>
       <c r="E106" s="27"/>
       <c r="F106" s="26" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G106" s="28" t="s">
         <v>59</v>
@@ -6809,7 +6806,7 @@
       <c r="P106" s="29"/>
       <c r="Q106" s="29"/>
       <c r="R106" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S106" s="29"/>
       <c r="T106" s="29"/>
@@ -6818,17 +6815,17 @@
     </row>
     <row r="107" spans="2:22">
       <c r="B107" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="C107" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="C107" s="31" t="s">
-        <v>169</v>
-      </c>
       <c r="D107" s="62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E107" s="33"/>
       <c r="F107" s="44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G107" s="29"/>
       <c r="H107" s="34"/>
@@ -6851,7 +6848,7 @@
       <c r="B108" s="32"/>
       <c r="C108" s="29"/>
       <c r="D108" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E108" s="63"/>
       <c r="F108" s="64"/>
@@ -6876,7 +6873,7 @@
       <c r="B109" s="32"/>
       <c r="C109" s="29"/>
       <c r="D109" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E109" s="67"/>
       <c r="F109" s="68"/>
@@ -6900,7 +6897,7 @@
     <row r="110" outlineLevel="1" spans="2:22">
       <c r="B110" s="32"/>
       <c r="C110" s="25" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D110" s="32"/>
       <c r="E110" s="63"/>
@@ -6925,7 +6922,7 @@
     <row r="111" outlineLevel="1" spans="2:22">
       <c r="B111" s="32"/>
       <c r="C111" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D111" s="32"/>
       <c r="E111" s="67"/>
@@ -6951,7 +6948,7 @@
       <c r="B112" s="32"/>
       <c r="C112" s="29"/>
       <c r="D112" s="45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E112" s="63"/>
       <c r="F112" s="64"/>
@@ -6976,7 +6973,7 @@
       <c r="B113" s="32"/>
       <c r="C113" s="29"/>
       <c r="D113" s="46" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E113" s="67"/>
       <c r="F113" s="68"/>
@@ -7001,7 +6998,7 @@
       <c r="B114" s="32"/>
       <c r="C114" s="29"/>
       <c r="D114" s="45" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E114" s="63"/>
       <c r="F114" s="64"/>
@@ -7026,7 +7023,7 @@
       <c r="B115" s="32"/>
       <c r="C115" s="29"/>
       <c r="D115" s="46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E115" s="67"/>
       <c r="F115" s="68"/>
@@ -7051,7 +7048,7 @@
       <c r="B116" s="32"/>
       <c r="C116" s="29"/>
       <c r="D116" s="45" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E116" s="63"/>
       <c r="F116" s="64"/>
@@ -7076,7 +7073,7 @@
       <c r="B117" s="32"/>
       <c r="C117" s="29"/>
       <c r="D117" s="46" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E117" s="67"/>
       <c r="F117" s="68"/>
@@ -7101,7 +7098,7 @@
       <c r="B118" s="32"/>
       <c r="C118" s="29"/>
       <c r="D118" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E118" s="63"/>
       <c r="F118" s="64"/>
@@ -7126,7 +7123,7 @@
       <c r="B119" s="32"/>
       <c r="C119" s="29"/>
       <c r="D119" s="46" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E119" s="67"/>
       <c r="F119" s="68"/>
@@ -7172,15 +7169,15 @@
     </row>
     <row r="121" spans="2:22">
       <c r="B121" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="C121" s="25" t="s">
         <v>180</v>
-      </c>
-      <c r="C121" s="25" t="s">
-        <v>181</v>
       </c>
       <c r="D121" s="26"/>
       <c r="E121" s="27"/>
       <c r="F121" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G121" s="28" t="s">
         <v>59</v>
@@ -7196,7 +7193,7 @@
       <c r="P121" s="29"/>
       <c r="Q121" s="29"/>
       <c r="R121" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S121" s="29"/>
       <c r="T121" s="29"/>
@@ -7205,15 +7202,15 @@
     </row>
     <row r="122" spans="2:22">
       <c r="B122" s="30" t="s">
+        <v>181</v>
+      </c>
+      <c r="C122" s="43" t="s">
         <v>182</v>
-      </c>
-      <c r="C122" s="43" t="s">
-        <v>183</v>
       </c>
       <c r="D122" s="32"/>
       <c r="E122" s="33"/>
       <c r="F122" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G122" s="29"/>
       <c r="H122" s="34"/>
@@ -7235,12 +7232,12 @@
     <row r="123" spans="2:22">
       <c r="B123" s="32"/>
       <c r="C123" s="25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D123" s="26"/>
       <c r="E123" s="27"/>
       <c r="F123" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G123" s="28" t="s">
         <v>59</v>
@@ -7256,7 +7253,7 @@
       <c r="P123" s="29"/>
       <c r="Q123" s="29"/>
       <c r="R123" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S123" s="29"/>
       <c r="T123" s="29"/>
@@ -7266,12 +7263,12 @@
     <row r="124" ht="28.8" spans="2:22">
       <c r="B124" s="32"/>
       <c r="C124" s="43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D124" s="32"/>
       <c r="E124" s="33"/>
       <c r="F124" s="34" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G124" s="29"/>
       <c r="H124" s="34"/>
@@ -7293,12 +7290,12 @@
     <row r="125" spans="2:22">
       <c r="B125" s="32"/>
       <c r="C125" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D125" s="26"/>
       <c r="E125" s="27"/>
       <c r="F125" s="28" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G125" s="28" t="s">
         <v>59</v>
@@ -7314,7 +7311,7 @@
       <c r="P125" s="29"/>
       <c r="Q125" s="29"/>
       <c r="R125" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S125" s="29"/>
       <c r="T125" s="29"/>
@@ -7324,12 +7321,12 @@
     <row r="126" spans="2:22">
       <c r="B126" s="32"/>
       <c r="C126" s="31" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D126" s="32"/>
       <c r="E126" s="33"/>
       <c r="F126" s="34" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G126" s="29"/>
       <c r="H126" s="34"/>
@@ -7351,12 +7348,12 @@
     <row r="127" ht="28.8" spans="2:22">
       <c r="B127" s="32"/>
       <c r="C127" s="25" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D127" s="26"/>
       <c r="E127" s="27"/>
       <c r="F127" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G127" s="28" t="s">
         <v>59</v>
@@ -7372,7 +7369,7 @@
       <c r="P127" s="29"/>
       <c r="Q127" s="29"/>
       <c r="R127" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S127" s="29"/>
       <c r="T127" s="29"/>
@@ -7382,12 +7379,12 @@
     <row r="128" ht="28.8" spans="2:22">
       <c r="B128" s="32"/>
       <c r="C128" s="43" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D128" s="32"/>
       <c r="E128" s="33"/>
       <c r="F128" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G128" s="29"/>
       <c r="H128" s="34"/>
@@ -7409,12 +7406,12 @@
     <row r="129" spans="2:22">
       <c r="B129" s="32"/>
       <c r="C129" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D129" s="26"/>
       <c r="E129" s="27"/>
       <c r="F129" s="28" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G129" s="28" t="s">
         <v>59</v>
@@ -7430,7 +7427,7 @@
       <c r="P129" s="29"/>
       <c r="Q129" s="29"/>
       <c r="R129" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S129" s="29"/>
       <c r="T129" s="29"/>
@@ -7440,12 +7437,12 @@
     <row r="130" spans="2:22">
       <c r="B130" s="32"/>
       <c r="C130" s="31" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D130" s="32"/>
       <c r="E130" s="33"/>
       <c r="F130" s="34" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G130" s="29"/>
       <c r="H130" s="34"/>
@@ -7467,12 +7464,12 @@
     <row r="131" spans="2:22">
       <c r="B131" s="32"/>
       <c r="C131" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D131" s="26"/>
       <c r="E131" s="27"/>
       <c r="F131" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G131" s="28" t="s">
         <v>59</v>
@@ -7488,7 +7485,7 @@
       <c r="P131" s="29"/>
       <c r="Q131" s="29"/>
       <c r="R131" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S131" s="29"/>
       <c r="T131" s="29"/>
@@ -7498,12 +7495,12 @@
     <row r="132" spans="2:22">
       <c r="B132" s="32"/>
       <c r="C132" s="43" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D132" s="32"/>
       <c r="E132" s="33"/>
       <c r="F132" s="34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G132" s="29"/>
       <c r="H132" s="34"/>
@@ -7525,12 +7522,12 @@
     <row r="133" ht="28.8" spans="2:22">
       <c r="B133" s="32"/>
       <c r="C133" s="25" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D133" s="26"/>
       <c r="E133" s="27"/>
       <c r="F133" s="28" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G133" s="28" t="s">
         <v>59</v>
@@ -7546,7 +7543,7 @@
       <c r="P133" s="29"/>
       <c r="Q133" s="29"/>
       <c r="R133" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S133" s="29"/>
       <c r="T133" s="29"/>
@@ -7556,12 +7553,12 @@
     <row r="134" ht="28.8" spans="2:22">
       <c r="B134" s="32"/>
       <c r="C134" s="43" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D134" s="32"/>
       <c r="E134" s="33"/>
       <c r="F134" s="34" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G134" s="29"/>
       <c r="H134" s="34"/>
@@ -7583,12 +7580,12 @@
     <row r="135" spans="2:22">
       <c r="B135" s="32"/>
       <c r="C135" s="25" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D135" s="26"/>
       <c r="E135" s="27"/>
       <c r="F135" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G135" s="28" t="s">
         <v>59</v>
@@ -7604,7 +7601,7 @@
       <c r="P135" s="29"/>
       <c r="Q135" s="29"/>
       <c r="R135" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S135" s="29"/>
       <c r="T135" s="29"/>
@@ -7614,12 +7611,12 @@
     <row r="136" ht="28.8" spans="2:22">
       <c r="B136" s="32"/>
       <c r="C136" s="43" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D136" s="32"/>
       <c r="E136" s="33"/>
       <c r="F136" s="34" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G136" s="29"/>
       <c r="H136" s="34"/>
@@ -7641,15 +7638,15 @@
     <row r="137" ht="28.8" spans="2:22">
       <c r="B137" s="32"/>
       <c r="C137" s="25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D137" s="26"/>
       <c r="E137" s="27"/>
       <c r="F137" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="G137" s="28" t="s">
         <v>198</v>
-      </c>
-      <c r="G137" s="28" t="s">
-        <v>199</v>
       </c>
       <c r="H137" s="29"/>
       <c r="I137" s="29"/>
@@ -7662,7 +7659,7 @@
       <c r="P137" s="29"/>
       <c r="Q137" s="29"/>
       <c r="R137" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S137" s="29"/>
       <c r="T137" s="29"/>
@@ -7672,12 +7669,12 @@
     <row r="138" ht="28.8" spans="2:22">
       <c r="B138" s="32"/>
       <c r="C138" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D138" s="32"/>
       <c r="E138" s="33"/>
       <c r="F138" s="34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G138" s="29"/>
       <c r="H138" s="34"/>
@@ -7699,12 +7696,12 @@
     <row r="139" ht="28.8" spans="2:22">
       <c r="B139" s="32"/>
       <c r="C139" s="25" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D139" s="26"/>
       <c r="E139" s="27"/>
       <c r="F139" s="28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G139" s="28" t="s">
         <v>59</v>
@@ -7720,7 +7717,7 @@
       <c r="P139" s="29"/>
       <c r="Q139" s="29"/>
       <c r="R139" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S139" s="29"/>
       <c r="T139" s="29"/>
@@ -7730,12 +7727,12 @@
     <row r="140" spans="2:22">
       <c r="B140" s="32"/>
       <c r="C140" s="43" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D140" s="32"/>
       <c r="E140" s="33"/>
       <c r="F140" s="34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G140" s="29"/>
       <c r="H140" s="34"/>
@@ -7757,15 +7754,15 @@
     <row r="141" spans="2:22">
       <c r="B141" s="32"/>
       <c r="C141" s="25" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D141" s="26"/>
       <c r="E141" s="27"/>
       <c r="F141" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="G141" s="28" t="s">
         <v>203</v>
-      </c>
-      <c r="G141" s="28" t="s">
-        <v>204</v>
       </c>
       <c r="H141" s="29"/>
       <c r="I141" s="29"/>
@@ -7778,7 +7775,7 @@
       <c r="P141" s="29"/>
       <c r="Q141" s="29"/>
       <c r="R141" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S141" s="29"/>
       <c r="T141" s="29"/>
@@ -7788,12 +7785,12 @@
     <row r="142" spans="2:22">
       <c r="B142" s="32"/>
       <c r="C142" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D142" s="32"/>
       <c r="E142" s="33"/>
       <c r="F142" s="34" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G142" s="34"/>
       <c r="H142" s="34"/>
@@ -7815,12 +7812,12 @@
     <row r="143" ht="28.8" spans="2:22">
       <c r="B143" s="32"/>
       <c r="C143" s="25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D143" s="26"/>
       <c r="E143" s="27"/>
       <c r="F143" s="28" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G143" s="29" t="s">
         <v>59</v>
@@ -7836,7 +7833,7 @@
       <c r="P143" s="29"/>
       <c r="Q143" s="29"/>
       <c r="R143" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S143" s="29"/>
       <c r="T143" s="29"/>
@@ -7846,12 +7843,12 @@
     <row r="144" ht="28.8" spans="2:22">
       <c r="B144" s="32"/>
       <c r="C144" s="43" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D144" s="32"/>
       <c r="E144" s="33"/>
       <c r="F144" s="34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G144" s="34"/>
       <c r="H144" s="34"/>
@@ -7873,12 +7870,12 @@
     <row r="145" spans="2:22">
       <c r="B145" s="32"/>
       <c r="C145" s="25" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D145" s="26"/>
       <c r="E145" s="27"/>
       <c r="F145" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G145" s="29" t="s">
         <v>59</v>
@@ -7894,7 +7891,7 @@
       <c r="P145" s="29"/>
       <c r="Q145" s="29"/>
       <c r="R145" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S145" s="29"/>
       <c r="T145" s="29"/>
@@ -7904,12 +7901,12 @@
     <row r="146" spans="2:22">
       <c r="B146" s="32"/>
       <c r="C146" s="43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D146" s="32"/>
       <c r="E146" s="33"/>
       <c r="F146" s="34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G146" s="29"/>
       <c r="H146" s="34"/>
@@ -7953,18 +7950,18 @@
     </row>
     <row r="148" ht="28.8" spans="2:22">
       <c r="B148" s="42" t="s">
+        <v>209</v>
+      </c>
+      <c r="C148" s="25" t="s">
         <v>210</v>
-      </c>
-      <c r="C148" s="25" t="s">
-        <v>211</v>
       </c>
       <c r="D148" s="26"/>
       <c r="E148" s="27"/>
       <c r="F148" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="G148" s="28" t="s">
         <v>211</v>
-      </c>
-      <c r="G148" s="28" t="s">
-        <v>212</v>
       </c>
       <c r="H148" s="29"/>
       <c r="I148" s="29"/>
@@ -7977,7 +7974,7 @@
       <c r="P148" s="29"/>
       <c r="Q148" s="29"/>
       <c r="R148" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S148" s="29"/>
       <c r="T148" s="29"/>
@@ -7986,15 +7983,15 @@
     </row>
     <row r="149" spans="2:22">
       <c r="B149" s="30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C149" s="31" t="s">
         <v>214</v>
-      </c>
-      <c r="C149" s="31" t="s">
-        <v>215</v>
       </c>
       <c r="D149" s="32"/>
       <c r="E149" s="33"/>
       <c r="F149" s="34" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G149" s="29"/>
       <c r="H149" s="34"/>
@@ -8016,15 +8013,15 @@
     <row r="150" spans="2:22">
       <c r="B150" s="32"/>
       <c r="C150" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D150" s="26"/>
       <c r="E150" s="27"/>
       <c r="F150" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G150" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H150" s="29"/>
       <c r="I150" s="29"/>
@@ -8037,7 +8034,7 @@
       <c r="P150" s="29"/>
       <c r="Q150" s="29"/>
       <c r="R150" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S150" s="29"/>
       <c r="T150" s="29"/>
@@ -8047,12 +8044,12 @@
     <row r="151" ht="28.8" spans="2:22">
       <c r="B151" s="32"/>
       <c r="C151" s="31" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D151" s="32"/>
       <c r="E151" s="33"/>
       <c r="F151" s="34" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G151" s="29"/>
       <c r="H151" s="34"/>
@@ -8074,15 +8071,15 @@
     <row r="152" ht="28.8" spans="2:22">
       <c r="B152" s="32"/>
       <c r="C152" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D152" s="26"/>
       <c r="E152" s="27"/>
       <c r="F152" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="G152" s="28" t="s">
         <v>218</v>
-      </c>
-      <c r="G152" s="28" t="s">
-        <v>219</v>
       </c>
       <c r="H152" s="29"/>
       <c r="I152" s="29"/>
@@ -8095,7 +8092,7 @@
       <c r="P152" s="29"/>
       <c r="Q152" s="29"/>
       <c r="R152" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="S152" s="29"/>
       <c r="T152" s="29"/>
@@ -8105,12 +8102,12 @@
     <row r="153" spans="2:22">
       <c r="B153" s="32"/>
       <c r="C153" s="31" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D153" s="32"/>
       <c r="E153" s="33"/>
       <c r="F153" s="34" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G153" s="29"/>
       <c r="H153" s="34"/>
@@ -8154,18 +8151,18 @@
     </row>
     <row r="155" ht="28.8" spans="2:22">
       <c r="B155" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="C155" s="25" t="s">
         <v>221</v>
-      </c>
-      <c r="C155" s="25" t="s">
-        <v>222</v>
       </c>
       <c r="D155" s="26"/>
       <c r="E155" s="27"/>
       <c r="F155" s="28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G155" s="28" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H155" s="29"/>
       <c r="I155" s="29"/>
@@ -8180,7 +8177,7 @@
       <c r="P155" s="29"/>
       <c r="Q155" s="29"/>
       <c r="R155" s="29" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="S155" s="29"/>
       <c r="T155" s="29"/>
@@ -8189,15 +8186,15 @@
     </row>
     <row r="156" ht="28.8" spans="2:22">
       <c r="B156" s="30" t="s">
+        <v>222</v>
+      </c>
+      <c r="C156" s="31" t="s">
         <v>223</v>
-      </c>
-      <c r="C156" s="31" t="s">
-        <v>224</v>
       </c>
       <c r="D156" s="32"/>
       <c r="E156" s="33"/>
       <c r="F156" s="34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G156" s="29"/>
       <c r="H156" s="34"/>
@@ -8241,16 +8238,16 @@
     </row>
     <row r="158" spans="2:22">
       <c r="B158" s="42" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C158" s="29"/>
       <c r="D158" s="32"/>
       <c r="E158" s="27"/>
       <c r="F158" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="G158" s="29" t="s">
         <v>225</v>
-      </c>
-      <c r="G158" s="29" t="s">
-        <v>226</v>
       </c>
       <c r="H158" s="29"/>
       <c r="I158" s="29"/>
@@ -8263,7 +8260,7 @@
       <c r="P158" s="29"/>
       <c r="Q158" s="29"/>
       <c r="R158" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S158" s="29"/>
       <c r="T158" s="29"/>
@@ -8272,13 +8269,13 @@
     </row>
     <row r="159" spans="2:22">
       <c r="B159" s="30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C159" s="29"/>
       <c r="D159" s="32"/>
       <c r="E159" s="33"/>
       <c r="F159" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G159" s="29"/>
       <c r="H159" s="34"/>
@@ -8322,15 +8319,15 @@
     </row>
     <row r="161" ht="28.8" spans="2:22">
       <c r="B161" s="42" t="s">
+        <v>227</v>
+      </c>
+      <c r="C161" s="25" t="s">
         <v>228</v>
-      </c>
-      <c r="C161" s="25" t="s">
-        <v>229</v>
       </c>
       <c r="D161" s="26"/>
       <c r="E161" s="27"/>
       <c r="F161" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G161" s="29" t="s">
         <v>59</v>
@@ -8346,7 +8343,7 @@
       <c r="P161" s="29"/>
       <c r="Q161" s="29"/>
       <c r="R161" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S161" s="29"/>
       <c r="T161" s="29"/>
@@ -8355,15 +8352,15 @@
     </row>
     <row r="162" spans="2:22">
       <c r="B162" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C162" s="31" t="s">
         <v>231</v>
-      </c>
-      <c r="C162" s="31" t="s">
-        <v>232</v>
       </c>
       <c r="D162" s="32"/>
       <c r="E162" s="33"/>
       <c r="F162" s="34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G162" s="29"/>
       <c r="H162" s="34"/>
@@ -8385,12 +8382,12 @@
     <row r="163" ht="28.8" spans="2:22">
       <c r="B163" s="32"/>
       <c r="C163" s="25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D163" s="26"/>
       <c r="E163" s="27"/>
       <c r="F163" s="28" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G163" s="28" t="s">
         <v>59</v>
@@ -8406,7 +8403,7 @@
       <c r="P163" s="29"/>
       <c r="Q163" s="29"/>
       <c r="R163" s="29" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="S163" s="29"/>
       <c r="T163" s="29"/>
@@ -8416,12 +8413,12 @@
     <row r="164" spans="2:22">
       <c r="B164" s="32"/>
       <c r="C164" s="31" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D164" s="32"/>
       <c r="E164" s="33"/>
       <c r="F164" s="34" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G164" s="29"/>
       <c r="H164" s="34"/>
@@ -8465,7 +8462,7 @@
     </row>
     <row r="166" ht="28.8" outlineLevel="1" spans="2:22">
       <c r="B166" s="42" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C166" s="29"/>
       <c r="D166" s="32"/>
@@ -8490,7 +8487,7 @@
     </row>
     <row r="167" outlineLevel="1" spans="2:22">
       <c r="B167" s="30" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C167" s="29"/>
       <c r="D167" s="32"/>
@@ -8539,7 +8536,7 @@
     <row r="169" outlineLevel="1" spans="2:22">
       <c r="B169" s="32"/>
       <c r="C169" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D169" s="26"/>
       <c r="E169" s="63"/>
@@ -8564,7 +8561,7 @@
     <row r="170" outlineLevel="1" spans="2:22">
       <c r="B170" s="32"/>
       <c r="C170" s="31" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D170" s="32"/>
       <c r="E170" s="67"/>
@@ -8589,7 +8586,7 @@
     <row r="171" outlineLevel="1" spans="2:22">
       <c r="B171" s="32"/>
       <c r="C171" s="25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D171" s="26"/>
       <c r="E171" s="63"/>
@@ -8614,7 +8611,7 @@
     <row r="172" outlineLevel="1" spans="2:22">
       <c r="B172" s="32"/>
       <c r="C172" s="31" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D172" s="32"/>
       <c r="E172" s="67"/>
@@ -8638,18 +8635,18 @@
     </row>
     <row r="173" ht="16.8" spans="1:22">
       <c r="A173" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B173" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C173" s="25" t="s">
         <v>241</v>
-      </c>
-      <c r="C173" s="25" t="s">
-        <v>242</v>
       </c>
       <c r="D173" s="26"/>
       <c r="E173" s="27"/>
       <c r="F173" s="28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G173" s="28" t="s">
         <v>59</v>
@@ -8665,7 +8662,7 @@
       <c r="P173" s="29"/>
       <c r="Q173" s="29"/>
       <c r="R173" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S173" s="29"/>
       <c r="T173" s="29"/>
@@ -8674,15 +8671,15 @@
     </row>
     <row r="174" spans="2:22">
       <c r="B174" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="C174" s="43" t="s">
         <v>244</v>
-      </c>
-      <c r="C174" s="43" t="s">
-        <v>245</v>
       </c>
       <c r="D174" s="32"/>
       <c r="E174" s="33"/>
       <c r="F174" s="34" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G174" s="34"/>
       <c r="H174" s="34"/>
@@ -8704,12 +8701,12 @@
     <row r="175" outlineLevel="1" spans="2:22">
       <c r="B175" s="32"/>
       <c r="C175" s="25" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D175" s="26"/>
       <c r="E175" s="63"/>
       <c r="F175" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G175" s="65"/>
       <c r="H175" s="66"/>
@@ -8731,12 +8728,12 @@
     <row r="176" outlineLevel="1" spans="2:22">
       <c r="B176" s="32"/>
       <c r="C176" s="31" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D176" s="32"/>
       <c r="E176" s="67"/>
       <c r="F176" s="34" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G176" s="66"/>
       <c r="H176" s="69"/>
@@ -8758,12 +8755,12 @@
     <row r="177" outlineLevel="1" spans="2:22">
       <c r="B177" s="32"/>
       <c r="C177" s="25" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D177" s="26"/>
       <c r="E177" s="63"/>
       <c r="F177" s="28" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G177" s="65"/>
       <c r="H177" s="66"/>
@@ -8785,12 +8782,12 @@
     <row r="178" outlineLevel="1" spans="2:22">
       <c r="B178" s="32"/>
       <c r="C178" s="31" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D178" s="32"/>
       <c r="E178" s="67"/>
       <c r="F178" s="34" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G178" s="66"/>
       <c r="H178" s="69"/>
@@ -8812,12 +8809,12 @@
     <row r="179" outlineLevel="1" spans="2:22">
       <c r="B179" s="32"/>
       <c r="C179" s="25" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D179" s="26"/>
       <c r="E179" s="63"/>
       <c r="F179" s="28" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G179" s="65"/>
       <c r="H179" s="66"/>
@@ -8839,12 +8836,12 @@
     <row r="180" outlineLevel="1" spans="2:22">
       <c r="B180" s="32"/>
       <c r="C180" s="31" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D180" s="32"/>
       <c r="E180" s="67"/>
       <c r="F180" s="34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G180" s="66"/>
       <c r="H180" s="69"/>
@@ -8866,12 +8863,12 @@
     <row r="181" outlineLevel="1" spans="2:22">
       <c r="B181" s="32"/>
       <c r="C181" s="25" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D181" s="26"/>
       <c r="E181" s="63"/>
       <c r="F181" s="28" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G181" s="65"/>
       <c r="H181" s="66"/>
@@ -8893,12 +8890,12 @@
     <row r="182" outlineLevel="1" spans="2:22">
       <c r="B182" s="32"/>
       <c r="C182" s="31" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D182" s="32"/>
       <c r="E182" s="67"/>
       <c r="F182" s="34" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G182" s="66"/>
       <c r="H182" s="69"/>
@@ -8920,12 +8917,12 @@
     <row r="183" outlineLevel="1" spans="2:22">
       <c r="B183" s="32"/>
       <c r="C183" s="25" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D183" s="26"/>
       <c r="E183" s="63"/>
       <c r="F183" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G183" s="65"/>
       <c r="H183" s="66"/>
@@ -8947,12 +8944,12 @@
     <row r="184" outlineLevel="1" spans="2:22">
       <c r="B184" s="32"/>
       <c r="C184" s="31" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D184" s="32"/>
       <c r="E184" s="67"/>
       <c r="F184" s="34" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G184" s="66"/>
       <c r="H184" s="69"/>
@@ -8974,12 +8971,12 @@
     <row r="185" outlineLevel="1" spans="2:22">
       <c r="B185" s="32"/>
       <c r="C185" s="25" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D185" s="26"/>
       <c r="E185" s="63"/>
       <c r="F185" s="28" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G185" s="65"/>
       <c r="H185" s="66"/>
@@ -9001,12 +8998,12 @@
     <row r="186" outlineLevel="1" spans="2:22">
       <c r="B186" s="32"/>
       <c r="C186" s="31" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D186" s="32"/>
       <c r="E186" s="67"/>
       <c r="F186" s="34" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G186" s="69"/>
       <c r="H186" s="69"/>
@@ -9028,12 +9025,12 @@
     <row r="187" ht="28.8" spans="2:22">
       <c r="B187" s="32"/>
       <c r="C187" s="25" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D187" s="26"/>
       <c r="E187" s="27"/>
       <c r="F187" s="28" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G187" s="28" t="s">
         <v>59</v>
@@ -9049,7 +9046,7 @@
       <c r="P187" s="29"/>
       <c r="Q187" s="29"/>
       <c r="R187" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S187" s="29"/>
       <c r="T187" s="29"/>
@@ -9059,12 +9056,12 @@
     <row r="188" ht="28.8" spans="2:22">
       <c r="B188" s="32"/>
       <c r="C188" s="43" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D188" s="32"/>
       <c r="E188" s="33"/>
       <c r="F188" s="34" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G188" s="29"/>
       <c r="H188" s="34"/>
@@ -9086,7 +9083,7 @@
     <row r="189" ht="28.8" outlineLevel="1" spans="2:22">
       <c r="B189" s="32"/>
       <c r="C189" s="25" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D189" s="26"/>
       <c r="E189" s="63"/>
@@ -9111,7 +9108,7 @@
     <row r="190" outlineLevel="1" spans="2:22">
       <c r="B190" s="32"/>
       <c r="C190" s="31" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D190" s="32"/>
       <c r="E190" s="67"/>
@@ -9136,7 +9133,7 @@
     <row r="191" outlineLevel="1" spans="2:22">
       <c r="B191" s="32"/>
       <c r="C191" s="25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D191" s="26"/>
       <c r="E191" s="63"/>
@@ -9161,7 +9158,7 @@
     <row r="192" outlineLevel="1" spans="2:22">
       <c r="B192" s="32"/>
       <c r="C192" s="31" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D192" s="32"/>
       <c r="E192" s="67"/>
@@ -9186,7 +9183,7 @@
     <row r="193" outlineLevel="1" spans="2:22">
       <c r="B193" s="32"/>
       <c r="C193" s="25" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D193" s="26"/>
       <c r="E193" s="63"/>
@@ -9211,7 +9208,7 @@
     <row r="194" outlineLevel="1" spans="2:22">
       <c r="B194" s="32"/>
       <c r="C194" s="31" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D194" s="32"/>
       <c r="E194" s="67"/>
@@ -9236,7 +9233,7 @@
     <row r="195" outlineLevel="1" spans="2:22">
       <c r="B195" s="32"/>
       <c r="C195" s="25" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D195" s="26"/>
       <c r="E195" s="63"/>
@@ -9261,7 +9258,7 @@
     <row r="196" outlineLevel="1" spans="2:22">
       <c r="B196" s="32"/>
       <c r="C196" s="31" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D196" s="32"/>
       <c r="E196" s="67"/>
@@ -9286,7 +9283,7 @@
     <row r="197" ht="28.8" outlineLevel="1" spans="2:22">
       <c r="B197" s="32"/>
       <c r="C197" s="25" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D197" s="26"/>
       <c r="E197" s="63"/>
@@ -9311,7 +9308,7 @@
     <row r="198" ht="28.8" outlineLevel="1" spans="2:22">
       <c r="B198" s="32"/>
       <c r="C198" s="31" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D198" s="32"/>
       <c r="E198" s="67"/>
@@ -9359,7 +9356,7 @@
     <row r="200" outlineLevel="1" spans="1:22">
       <c r="A200" s="70"/>
       <c r="B200" s="42" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C200" s="29"/>
       <c r="D200" s="32"/>
@@ -9384,7 +9381,7 @@
     </row>
     <row r="201" outlineLevel="1" spans="2:22">
       <c r="B201" s="30" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C201" s="29"/>
       <c r="D201" s="32"/>
@@ -9432,7 +9429,7 @@
     </row>
     <row r="203" outlineLevel="1" spans="2:22">
       <c r="B203" s="42" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C203" s="29"/>
       <c r="D203" s="32"/>
@@ -9457,7 +9454,7 @@
     </row>
     <row r="204" outlineLevel="1" spans="2:22">
       <c r="B204" s="30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C204" s="29"/>
       <c r="D204" s="32"/>
@@ -9483,7 +9480,7 @@
     <row r="205" outlineLevel="1" spans="2:22">
       <c r="B205" s="32"/>
       <c r="C205" s="25" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D205" s="26"/>
       <c r="E205" s="63"/>
@@ -9508,7 +9505,7 @@
     <row r="206" outlineLevel="1" spans="2:22">
       <c r="B206" s="32"/>
       <c r="C206" s="31" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D206" s="32"/>
       <c r="E206" s="67"/>
@@ -9534,7 +9531,7 @@
       <c r="B207" s="32"/>
       <c r="C207" s="29"/>
       <c r="D207" s="45" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E207" s="63"/>
       <c r="F207" s="64"/>
@@ -9559,7 +9556,7 @@
       <c r="B208" s="32"/>
       <c r="C208" s="29"/>
       <c r="D208" s="46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E208" s="67"/>
       <c r="F208" s="68"/>
@@ -9584,7 +9581,7 @@
       <c r="B209" s="32"/>
       <c r="C209" s="29"/>
       <c r="D209" s="45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E209" s="63"/>
       <c r="F209" s="64"/>
@@ -9609,7 +9606,7 @@
       <c r="B210" s="32"/>
       <c r="C210" s="29"/>
       <c r="D210" s="46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E210" s="67"/>
       <c r="F210" s="68"/>
@@ -9633,7 +9630,7 @@
     <row r="211" outlineLevel="1" spans="2:22">
       <c r="B211" s="32"/>
       <c r="C211" s="25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D211" s="32"/>
       <c r="E211" s="63"/>
@@ -9658,7 +9655,7 @@
     <row r="212" outlineLevel="1" spans="2:22">
       <c r="B212" s="32"/>
       <c r="C212" s="31" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D212" s="32"/>
       <c r="E212" s="67"/>
@@ -9683,7 +9680,7 @@
     <row r="213" outlineLevel="1" spans="2:22">
       <c r="B213" s="32"/>
       <c r="C213" s="25" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D213" s="26"/>
       <c r="E213" s="63"/>
@@ -9708,7 +9705,7 @@
     <row r="214" outlineLevel="1" spans="2:22">
       <c r="B214" s="32"/>
       <c r="C214" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D214" s="32"/>
       <c r="E214" s="67"/>
@@ -9733,7 +9730,7 @@
     <row r="215" outlineLevel="1" spans="2:22">
       <c r="B215" s="32"/>
       <c r="C215" s="25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D215" s="26"/>
       <c r="E215" s="63"/>
@@ -9758,7 +9755,7 @@
     <row r="216" outlineLevel="1" spans="2:22">
       <c r="B216" s="32"/>
       <c r="C216" s="31" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D216" s="32"/>
       <c r="E216" s="67"/>
@@ -9805,16 +9802,16 @@
     </row>
     <row r="218" spans="2:22">
       <c r="B218" s="42" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C218" s="29"/>
       <c r="D218" s="32"/>
       <c r="E218" s="27"/>
       <c r="F218" s="26" t="s">
+        <v>285</v>
+      </c>
+      <c r="G218" s="29" t="s">
         <v>286</v>
-      </c>
-      <c r="G218" s="29" t="s">
-        <v>287</v>
       </c>
       <c r="H218" s="29"/>
       <c r="I218" s="29"/>
@@ -9827,7 +9824,7 @@
       <c r="P218" s="29"/>
       <c r="Q218" s="29"/>
       <c r="R218" s="29" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="S218" s="29"/>
       <c r="T218" s="29"/>
@@ -9836,13 +9833,13 @@
     </row>
     <row r="219" spans="2:22">
       <c r="B219" s="30" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C219" s="29"/>
       <c r="D219" s="32"/>
       <c r="E219" s="33"/>
       <c r="F219" s="44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G219" s="29"/>
       <c r="H219" s="34"/>
@@ -9886,7 +9883,7 @@
     </row>
     <row r="221" outlineLevel="1" spans="2:22">
       <c r="B221" s="42" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C221" s="29"/>
       <c r="D221" s="32"/>
@@ -9911,7 +9908,7 @@
     </row>
     <row r="222" outlineLevel="1" spans="2:22">
       <c r="B222" s="30" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C222" s="29"/>
       <c r="D222" s="32"/>
@@ -9959,7 +9956,7 @@
     </row>
     <row r="224" outlineLevel="1" spans="2:22">
       <c r="B224" s="42" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C224" s="29"/>
       <c r="D224" s="32"/>
@@ -9984,7 +9981,7 @@
     </row>
     <row r="225" outlineLevel="1" spans="2:22">
       <c r="B225" s="30" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C225" s="29"/>
       <c r="D225" s="32"/>
@@ -10032,19 +10029,19 @@
     </row>
     <row r="227" ht="16.8" spans="1:22">
       <c r="A227" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B227" s="42" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C227" s="29"/>
       <c r="D227" s="32"/>
       <c r="E227" s="27"/>
       <c r="F227" s="26" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G227" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H227" s="29"/>
       <c r="I227" s="29"/>
@@ -10057,7 +10054,7 @@
       <c r="P227" s="29"/>
       <c r="Q227" s="29"/>
       <c r="R227" s="29" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="S227" s="29"/>
       <c r="T227" s="29"/>
@@ -10066,13 +10063,13 @@
     </row>
     <row r="228" spans="2:22">
       <c r="B228" s="62" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C228" s="29"/>
       <c r="D228" s="32"/>
       <c r="E228" s="33"/>
       <c r="F228" s="44" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G228" s="29"/>
       <c r="H228" s="34"/>
@@ -10116,18 +10113,18 @@
     </row>
     <row r="230" ht="28.8" spans="2:22">
       <c r="B230" s="42" t="s">
+        <v>296</v>
+      </c>
+      <c r="C230" s="25" t="s">
         <v>297</v>
-      </c>
-      <c r="C230" s="25" t="s">
-        <v>298</v>
       </c>
       <c r="D230" s="26"/>
       <c r="E230" s="27"/>
       <c r="F230" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G230" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H230" s="29"/>
       <c r="I230" s="29"/>
@@ -10140,7 +10137,7 @@
       <c r="P230" s="29"/>
       <c r="Q230" s="29"/>
       <c r="R230" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S230" s="29"/>
       <c r="T230" s="29"/>
@@ -10149,15 +10146,15 @@
     </row>
     <row r="231" ht="28.8" spans="2:22">
       <c r="B231" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C231" s="31" t="s">
         <v>300</v>
-      </c>
-      <c r="C231" s="31" t="s">
-        <v>301</v>
       </c>
       <c r="D231" s="32"/>
       <c r="E231" s="33"/>
       <c r="F231" s="34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G231" s="29"/>
       <c r="H231" s="34"/>
@@ -10179,15 +10176,15 @@
     <row r="232" ht="28.8" spans="2:22">
       <c r="B232" s="32"/>
       <c r="C232" s="25" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D232" s="26"/>
       <c r="E232" s="27"/>
       <c r="F232" s="28" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G232" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H232" s="29"/>
       <c r="I232" s="29"/>
@@ -10200,7 +10197,7 @@
       <c r="P232" s="29"/>
       <c r="Q232" s="29"/>
       <c r="R232" s="29" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="S232" s="29"/>
       <c r="T232" s="29"/>
@@ -10210,12 +10207,12 @@
     <row r="233" ht="28.8" spans="2:22">
       <c r="B233" s="32"/>
       <c r="C233" s="31" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D233" s="32"/>
       <c r="E233" s="33"/>
       <c r="F233" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G233" s="29"/>
       <c r="H233" s="34"/>
@@ -10259,18 +10256,18 @@
     </row>
     <row r="235" ht="43.2" spans="2:22">
       <c r="B235" s="42" t="s">
+        <v>303</v>
+      </c>
+      <c r="C235" s="25" t="s">
         <v>304</v>
-      </c>
-      <c r="C235" s="25" t="s">
-        <v>305</v>
       </c>
       <c r="D235" s="26"/>
       <c r="E235" s="27"/>
       <c r="F235" s="28" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G235" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H235" s="29"/>
       <c r="I235" s="29"/>
@@ -10283,7 +10280,7 @@
       <c r="P235" s="29"/>
       <c r="Q235" s="29"/>
       <c r="R235" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S235" s="29"/>
       <c r="T235" s="29"/>
@@ -10292,15 +10289,15 @@
     </row>
     <row r="236" ht="28.8" spans="2:22">
       <c r="B236" s="30" t="s">
+        <v>306</v>
+      </c>
+      <c r="C236" s="31" t="s">
         <v>307</v>
-      </c>
-      <c r="C236" s="31" t="s">
-        <v>308</v>
       </c>
       <c r="D236" s="32"/>
       <c r="E236" s="33"/>
       <c r="F236" s="34" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G236" s="29"/>
       <c r="H236" s="34"/>
@@ -10322,17 +10319,17 @@
     <row r="237" spans="2:22">
       <c r="B237" s="32"/>
       <c r="C237" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="D237" s="45" t="s">
         <v>309</v>
-      </c>
-      <c r="D237" s="45" t="s">
-        <v>310</v>
       </c>
       <c r="E237" s="27"/>
       <c r="F237" s="26" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G237" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H237" s="29"/>
       <c r="I237" s="29"/>
@@ -10345,7 +10342,7 @@
       <c r="P237" s="29"/>
       <c r="Q237" s="29"/>
       <c r="R237" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S237" s="29"/>
       <c r="T237" s="29"/>
@@ -10355,14 +10352,14 @@
     <row r="238" spans="2:22">
       <c r="B238" s="32"/>
       <c r="C238" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="D238" s="62" t="s">
         <v>311</v>
-      </c>
-      <c r="D238" s="62" t="s">
-        <v>312</v>
       </c>
       <c r="E238" s="33"/>
       <c r="F238" s="44" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G238" s="29"/>
       <c r="H238" s="34"/>
@@ -10385,14 +10382,14 @@
       <c r="B239" s="32"/>
       <c r="C239" s="29"/>
       <c r="D239" s="45" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E239" s="27"/>
       <c r="F239" s="26" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G239" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H239" s="29"/>
       <c r="I239" s="29"/>
@@ -10405,7 +10402,7 @@
       <c r="P239" s="29"/>
       <c r="Q239" s="29"/>
       <c r="R239" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S239" s="29"/>
       <c r="T239" s="29"/>
@@ -10416,11 +10413,11 @@
       <c r="B240" s="32"/>
       <c r="C240" s="29"/>
       <c r="D240" s="62" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E240" s="33"/>
       <c r="F240" s="44" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G240" s="29"/>
       <c r="H240" s="34"/>
@@ -10443,14 +10440,14 @@
       <c r="B241" s="32"/>
       <c r="C241" s="29"/>
       <c r="D241" s="45" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="E241" s="27"/>
       <c r="F241" s="26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G241" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H241" s="29"/>
       <c r="I241" s="29"/>
@@ -10463,7 +10460,7 @@
       <c r="P241" s="29"/>
       <c r="Q241" s="29"/>
       <c r="R241" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S241" s="29"/>
       <c r="T241" s="29"/>
@@ -10474,11 +10471,11 @@
       <c r="B242" s="32"/>
       <c r="C242" s="29"/>
       <c r="D242" s="62" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E242" s="33"/>
       <c r="F242" s="44" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G242" s="29"/>
       <c r="H242" s="34"/>
@@ -10501,14 +10498,14 @@
       <c r="B243" s="32"/>
       <c r="C243" s="29"/>
       <c r="D243" s="45" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E243" s="27"/>
       <c r="F243" s="26" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G243" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H243" s="29"/>
       <c r="I243" s="29"/>
@@ -10521,7 +10518,7 @@
       <c r="P243" s="29"/>
       <c r="Q243" s="29"/>
       <c r="R243" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S243" s="29"/>
       <c r="T243" s="29"/>
@@ -10532,11 +10529,11 @@
       <c r="B244" s="32"/>
       <c r="C244" s="29"/>
       <c r="D244" s="62" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E244" s="33"/>
       <c r="F244" s="44" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G244" s="29"/>
       <c r="H244" s="34"/>
@@ -10558,17 +10555,17 @@
     <row r="245" ht="28.8" spans="2:22">
       <c r="B245" s="32"/>
       <c r="C245" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="D245" s="45" t="s">
         <v>319</v>
-      </c>
-      <c r="D245" s="45" t="s">
-        <v>320</v>
       </c>
       <c r="E245" s="27"/>
       <c r="F245" s="26" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G245" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H245" s="29"/>
       <c r="I245" s="29"/>
@@ -10581,7 +10578,7 @@
       <c r="P245" s="29"/>
       <c r="Q245" s="29"/>
       <c r="R245" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S245" s="29"/>
       <c r="T245" s="29"/>
@@ -10591,14 +10588,14 @@
     <row r="246" spans="2:22">
       <c r="B246" s="32"/>
       <c r="C246" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="D246" s="62" t="s">
         <v>321</v>
-      </c>
-      <c r="D246" s="62" t="s">
-        <v>322</v>
       </c>
       <c r="E246" s="33"/>
       <c r="F246" s="44" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G246" s="29"/>
       <c r="H246" s="34"/>
@@ -10621,14 +10618,14 @@
       <c r="B247" s="32"/>
       <c r="C247" s="29"/>
       <c r="D247" s="45" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E247" s="27"/>
       <c r="F247" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G247" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H247" s="29"/>
       <c r="I247" s="29"/>
@@ -10641,7 +10638,7 @@
       <c r="P247" s="29"/>
       <c r="Q247" s="29"/>
       <c r="R247" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S247" s="29"/>
       <c r="T247" s="29"/>
@@ -10652,11 +10649,11 @@
       <c r="B248" s="32"/>
       <c r="C248" s="29"/>
       <c r="D248" s="62" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E248" s="33"/>
       <c r="F248" s="44" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G248" s="29"/>
       <c r="H248" s="34"/>
@@ -10679,14 +10676,14 @@
       <c r="B249" s="32"/>
       <c r="C249" s="29"/>
       <c r="D249" s="45" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E249" s="27"/>
       <c r="F249" s="26" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G249" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H249" s="29"/>
       <c r="I249" s="29"/>
@@ -10699,7 +10696,7 @@
       <c r="P249" s="29"/>
       <c r="Q249" s="29"/>
       <c r="R249" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S249" s="29"/>
       <c r="T249" s="29"/>
@@ -10710,11 +10707,11 @@
       <c r="B250" s="32"/>
       <c r="C250" s="29"/>
       <c r="D250" s="62" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E250" s="33"/>
       <c r="F250" s="44" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G250" s="29"/>
       <c r="H250" s="34"/>
@@ -10736,15 +10733,15 @@
     <row r="251" spans="2:22">
       <c r="B251" s="32"/>
       <c r="C251" s="25" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D251" s="32"/>
       <c r="E251" s="27"/>
       <c r="F251" s="28" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G251" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H251" s="29"/>
       <c r="I251" s="29"/>
@@ -10757,7 +10754,7 @@
       <c r="P251" s="29"/>
       <c r="Q251" s="29"/>
       <c r="R251" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S251" s="29"/>
       <c r="T251" s="29"/>
@@ -10767,12 +10764,12 @@
     <row r="252" spans="2:22">
       <c r="B252" s="32"/>
       <c r="C252" s="43" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D252" s="32"/>
       <c r="E252" s="33"/>
       <c r="F252" s="34" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G252" s="29"/>
       <c r="H252" s="34"/>
@@ -10794,15 +10791,15 @@
     <row r="253" spans="2:22">
       <c r="B253" s="32"/>
       <c r="C253" s="25" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D253" s="26"/>
       <c r="E253" s="27"/>
       <c r="F253" s="28" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G253" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H253" s="29"/>
       <c r="I253" s="29"/>
@@ -10815,7 +10812,7 @@
       <c r="P253" s="29"/>
       <c r="Q253" s="29"/>
       <c r="R253" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S253" s="29"/>
       <c r="T253" s="29"/>
@@ -10825,12 +10822,12 @@
     <row r="254" spans="2:22">
       <c r="B254" s="32"/>
       <c r="C254" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D254" s="32"/>
       <c r="E254" s="33"/>
       <c r="F254" s="34" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G254" s="29"/>
       <c r="H254" s="34"/>
@@ -10852,15 +10849,15 @@
     <row r="255" ht="28.8" spans="2:22">
       <c r="B255" s="32"/>
       <c r="C255" s="25" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D255" s="26"/>
       <c r="E255" s="27"/>
       <c r="F255" s="28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G255" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H255" s="29"/>
       <c r="I255" s="29"/>
@@ -10873,7 +10870,7 @@
       <c r="P255" s="29"/>
       <c r="Q255" s="29"/>
       <c r="R255" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S255" s="29"/>
       <c r="T255" s="29"/>
@@ -10883,12 +10880,12 @@
     <row r="256" spans="2:22">
       <c r="B256" s="32"/>
       <c r="C256" s="43" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D256" s="32"/>
       <c r="E256" s="33"/>
       <c r="F256" s="34" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G256" s="29"/>
       <c r="H256" s="34"/>
@@ -10910,15 +10907,15 @@
     <row r="257" ht="43.2" spans="2:22">
       <c r="B257" s="32"/>
       <c r="C257" s="25" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D257" s="26"/>
       <c r="E257" s="27"/>
       <c r="F257" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G257" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H257" s="29"/>
       <c r="I257" s="29"/>
@@ -10931,7 +10928,7 @@
       <c r="P257" s="29"/>
       <c r="Q257" s="29"/>
       <c r="R257" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S257" s="29"/>
       <c r="T257" s="29"/>
@@ -10941,12 +10938,12 @@
     <row r="258" ht="28.8" spans="2:22">
       <c r="B258" s="32"/>
       <c r="C258" s="43" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D258" s="32"/>
       <c r="E258" s="33"/>
       <c r="F258" s="34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G258" s="29"/>
       <c r="H258" s="34"/>
@@ -10968,15 +10965,15 @@
     <row r="259" ht="43.2" spans="2:22">
       <c r="B259" s="32"/>
       <c r="C259" s="25" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D259" s="26"/>
       <c r="E259" s="27"/>
       <c r="F259" s="28" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G259" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H259" s="29"/>
       <c r="I259" s="29"/>
@@ -10989,7 +10986,7 @@
       <c r="P259" s="29"/>
       <c r="Q259" s="29"/>
       <c r="R259" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S259" s="29"/>
       <c r="T259" s="29"/>
@@ -10999,12 +10996,12 @@
     <row r="260" ht="28.8" spans="2:22">
       <c r="B260" s="32"/>
       <c r="C260" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D260" s="32"/>
       <c r="E260" s="33"/>
       <c r="F260" s="34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G260" s="29"/>
       <c r="H260" s="34"/>
@@ -11026,15 +11023,15 @@
     <row r="261" ht="28.8" spans="2:22">
       <c r="B261" s="32"/>
       <c r="C261" s="25" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D261" s="26"/>
       <c r="E261" s="27"/>
       <c r="F261" s="28" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G261" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H261" s="29"/>
       <c r="I261" s="29"/>
@@ -11047,7 +11044,7 @@
       <c r="P261" s="29"/>
       <c r="Q261" s="29"/>
       <c r="R261" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S261" s="29"/>
       <c r="T261" s="29"/>
@@ -11057,12 +11054,12 @@
     <row r="262" spans="2:22">
       <c r="B262" s="32"/>
       <c r="C262" s="31" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D262" s="32"/>
       <c r="E262" s="33"/>
       <c r="F262" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G262" s="29"/>
       <c r="H262" s="34"/>
@@ -11084,15 +11081,15 @@
     <row r="263" ht="43.2" spans="2:22">
       <c r="B263" s="32"/>
       <c r="C263" s="25" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D263" s="26"/>
       <c r="E263" s="27"/>
       <c r="F263" s="28" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G263" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H263" s="29"/>
       <c r="I263" s="29"/>
@@ -11105,7 +11102,7 @@
       <c r="P263" s="29"/>
       <c r="Q263" s="29"/>
       <c r="R263" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S263" s="29"/>
       <c r="T263" s="29"/>
@@ -11115,12 +11112,12 @@
     <row r="264" spans="2:22">
       <c r="B264" s="32"/>
       <c r="C264" s="43" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D264" s="32"/>
       <c r="E264" s="33"/>
       <c r="F264" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G264" s="29"/>
       <c r="H264" s="34"/>
@@ -11142,15 +11139,15 @@
     <row r="265" ht="28.8" spans="2:22">
       <c r="B265" s="32"/>
       <c r="C265" s="25" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D265" s="26"/>
       <c r="E265" s="27"/>
       <c r="F265" s="28" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G265" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H265" s="29"/>
       <c r="I265" s="29"/>
@@ -11163,7 +11160,7 @@
       <c r="P265" s="29"/>
       <c r="Q265" s="29"/>
       <c r="R265" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S265" s="29"/>
       <c r="T265" s="29"/>
@@ -11173,12 +11170,12 @@
     <row r="266" spans="2:22">
       <c r="B266" s="32"/>
       <c r="C266" s="43" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D266" s="32"/>
       <c r="E266" s="33"/>
       <c r="F266" s="34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G266" s="29"/>
       <c r="H266" s="34"/>
@@ -11200,15 +11197,15 @@
     <row r="267" ht="28.8" spans="2:22">
       <c r="B267" s="32"/>
       <c r="C267" s="25" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D267" s="26"/>
       <c r="E267" s="27"/>
       <c r="F267" s="28" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G267" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H267" s="29"/>
       <c r="I267" s="29"/>
@@ -11221,7 +11218,7 @@
       <c r="P267" s="29"/>
       <c r="Q267" s="29"/>
       <c r="R267" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S267" s="29"/>
       <c r="T267" s="29"/>
@@ -11231,12 +11228,12 @@
     <row r="268" spans="2:22">
       <c r="B268" s="32"/>
       <c r="C268" s="31" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D268" s="32"/>
       <c r="E268" s="33"/>
       <c r="F268" s="34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G268" s="29"/>
       <c r="H268" s="34"/>
@@ -11258,15 +11255,15 @@
     <row r="269" spans="2:22">
       <c r="B269" s="32"/>
       <c r="C269" s="25" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D269" s="26"/>
       <c r="E269" s="27"/>
       <c r="F269" s="28" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G269" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H269" s="29"/>
       <c r="I269" s="29"/>
@@ -11279,7 +11276,7 @@
       <c r="P269" s="29"/>
       <c r="Q269" s="29"/>
       <c r="R269" s="29" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="S269" s="29"/>
       <c r="T269" s="29"/>
@@ -11289,12 +11286,12 @@
     <row r="270" spans="2:22">
       <c r="B270" s="32"/>
       <c r="C270" s="31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D270" s="32"/>
       <c r="E270" s="33"/>
       <c r="F270" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G270" s="29"/>
       <c r="H270" s="34"/>
@@ -11316,15 +11313,15 @@
     <row r="271" spans="2:22">
       <c r="B271" s="32"/>
       <c r="C271" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D271" s="26"/>
       <c r="E271" s="27"/>
       <c r="F271" s="28" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G271" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H271" s="29"/>
       <c r="I271" s="29"/>
@@ -11337,7 +11334,7 @@
       <c r="P271" s="29"/>
       <c r="Q271" s="29"/>
       <c r="R271" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S271" s="29"/>
       <c r="T271" s="29"/>
@@ -11347,12 +11344,12 @@
     <row r="272" spans="2:22">
       <c r="B272" s="32"/>
       <c r="C272" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D272" s="32"/>
       <c r="E272" s="33"/>
       <c r="F272" s="34" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G272" s="29"/>
       <c r="H272" s="34"/>
@@ -11374,15 +11371,15 @@
     <row r="273" ht="28.8" spans="2:22">
       <c r="B273" s="32"/>
       <c r="C273" s="25" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D273" s="26"/>
       <c r="E273" s="27"/>
       <c r="F273" s="28" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G273" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H273" s="29"/>
       <c r="I273" s="29"/>
@@ -11395,7 +11392,7 @@
       <c r="P273" s="29"/>
       <c r="Q273" s="29"/>
       <c r="R273" s="29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="S273" s="29"/>
       <c r="T273" s="29"/>
@@ -11405,12 +11402,12 @@
     <row r="274" spans="2:22">
       <c r="B274" s="32"/>
       <c r="C274" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D274" s="32"/>
       <c r="E274" s="33"/>
       <c r="F274" s="34" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G274" s="29"/>
       <c r="H274" s="34"/>
@@ -11454,7 +11451,7 @@
     </row>
     <row r="276" outlineLevel="1" spans="2:22">
       <c r="B276" s="42" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C276" s="29"/>
       <c r="D276" s="32"/>
@@ -11479,7 +11476,7 @@
     </row>
     <row r="277" outlineLevel="1" spans="2:22">
       <c r="B277" s="30" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C277" s="29"/>
       <c r="D277" s="32"/>
@@ -11505,7 +11502,7 @@
     <row r="278" outlineLevel="1" spans="2:22">
       <c r="B278" s="32"/>
       <c r="C278" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D278" s="26"/>
       <c r="E278" s="63"/>
@@ -11530,7 +11527,7 @@
     <row r="279" outlineLevel="1" spans="2:22">
       <c r="B279" s="32"/>
       <c r="C279" s="31" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D279" s="32"/>
       <c r="E279" s="67"/>
@@ -11555,7 +11552,7 @@
     <row r="280" outlineLevel="1" spans="2:22">
       <c r="B280" s="32"/>
       <c r="C280" s="25" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D280" s="26"/>
       <c r="E280" s="63"/>
@@ -11580,7 +11577,7 @@
     <row r="281" outlineLevel="1" spans="2:22">
       <c r="B281" s="32"/>
       <c r="C281" s="31" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D281" s="32"/>
       <c r="E281" s="67"/>
@@ -11605,7 +11602,7 @@
     <row r="282" ht="28.8" outlineLevel="1" spans="2:22">
       <c r="B282" s="32"/>
       <c r="C282" s="25" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D282" s="26"/>
       <c r="E282" s="63"/>
@@ -11630,7 +11627,7 @@
     <row r="283" outlineLevel="1" spans="2:22">
       <c r="B283" s="32"/>
       <c r="C283" s="31" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D283" s="32"/>
       <c r="E283" s="67"/>
@@ -11655,7 +11652,7 @@
     <row r="284" ht="28.8" outlineLevel="1" spans="2:22">
       <c r="B284" s="32"/>
       <c r="C284" s="25" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D284" s="26"/>
       <c r="E284" s="63"/>
@@ -11680,7 +11677,7 @@
     <row r="285" outlineLevel="1" spans="2:22">
       <c r="B285" s="32"/>
       <c r="C285" s="31" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D285" s="32"/>
       <c r="E285" s="67"/>
@@ -11705,7 +11702,7 @@
     <row r="286" ht="28.8" outlineLevel="1" spans="2:22">
       <c r="B286" s="32"/>
       <c r="C286" s="25" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D286" s="26"/>
       <c r="E286" s="63"/>
@@ -11730,7 +11727,7 @@
     <row r="287" outlineLevel="1" spans="2:22">
       <c r="B287" s="32"/>
       <c r="C287" s="31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D287" s="32"/>
       <c r="E287" s="67"/>
@@ -11777,7 +11774,7 @@
     </row>
     <row r="289" outlineLevel="1" spans="2:22">
       <c r="B289" s="42" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C289" s="29"/>
       <c r="D289" s="32"/>
@@ -11802,7 +11799,7 @@
     </row>
     <row r="290" outlineLevel="1" spans="2:22">
       <c r="B290" s="30" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C290" s="29"/>
       <c r="D290" s="32"/>
@@ -11828,7 +11825,7 @@
     <row r="291" outlineLevel="1" spans="2:22">
       <c r="B291" s="32"/>
       <c r="C291" s="25" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D291" s="26"/>
       <c r="E291" s="63"/>
@@ -11853,7 +11850,7 @@
     <row r="292" outlineLevel="1" spans="2:22">
       <c r="B292" s="32"/>
       <c r="C292" s="31" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D292" s="32"/>
       <c r="E292" s="67"/>
@@ -11878,7 +11875,7 @@
     <row r="293" outlineLevel="1" spans="2:22">
       <c r="B293" s="32"/>
       <c r="C293" s="25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D293" s="26"/>
       <c r="E293" s="63"/>
@@ -11903,7 +11900,7 @@
     <row r="294" outlineLevel="1" spans="2:22">
       <c r="B294" s="32"/>
       <c r="C294" s="31" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D294" s="32"/>
       <c r="E294" s="67"/>
@@ -11950,7 +11947,7 @@
     </row>
     <row r="296" outlineLevel="1" spans="2:22">
       <c r="B296" s="42" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C296" s="29"/>
       <c r="D296" s="32"/>
@@ -11975,7 +11972,7 @@
     </row>
     <row r="297" outlineLevel="1" spans="2:22">
       <c r="B297" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C297" s="29"/>
       <c r="D297" s="32"/>
@@ -12001,7 +11998,7 @@
     <row r="298" outlineLevel="1" spans="2:22">
       <c r="B298" s="32"/>
       <c r="C298" s="25" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D298" s="26"/>
       <c r="E298" s="63"/>
@@ -12026,7 +12023,7 @@
     <row r="299" outlineLevel="1" spans="2:22">
       <c r="B299" s="32"/>
       <c r="C299" s="31" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D299" s="32"/>
       <c r="E299" s="67"/>
@@ -12051,7 +12048,7 @@
     <row r="300" outlineLevel="1" spans="2:22">
       <c r="B300" s="32"/>
       <c r="C300" s="25" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D300" s="26"/>
       <c r="E300" s="63"/>
@@ -12076,7 +12073,7 @@
     <row r="301" ht="28.8" outlineLevel="1" spans="2:22">
       <c r="B301" s="32"/>
       <c r="C301" s="31" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D301" s="32"/>
       <c r="E301" s="67"/>
@@ -12101,7 +12098,7 @@
     <row r="302" outlineLevel="1" spans="2:22">
       <c r="B302" s="32"/>
       <c r="C302" s="25" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D302" s="26"/>
       <c r="E302" s="63"/>
@@ -12126,7 +12123,7 @@
     <row r="303" outlineLevel="1" spans="2:22">
       <c r="B303" s="32"/>
       <c r="C303" s="31" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D303" s="32"/>
       <c r="E303" s="67"/>
@@ -12151,7 +12148,7 @@
     <row r="304" outlineLevel="1" spans="2:22">
       <c r="B304" s="32"/>
       <c r="C304" s="25" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D304" s="26"/>
       <c r="E304" s="63"/>
@@ -12176,7 +12173,7 @@
     <row r="305" outlineLevel="1" spans="2:22">
       <c r="B305" s="32"/>
       <c r="C305" s="31" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D305" s="32"/>
       <c r="E305" s="67"/>
@@ -12223,10 +12220,10 @@
     </row>
     <row r="307" outlineLevel="1" spans="1:22">
       <c r="A307" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="B307" s="42" t="s">
         <v>380</v>
-      </c>
-      <c r="B307" s="42" t="s">
-        <v>381</v>
       </c>
       <c r="C307" s="29"/>
       <c r="D307" s="32"/>
@@ -12251,7 +12248,7 @@
     </row>
     <row r="308" outlineLevel="1" spans="2:22">
       <c r="B308" s="30" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C308" s="29"/>
       <c r="D308" s="32"/>
@@ -12299,7 +12296,7 @@
     </row>
     <row r="310" outlineLevel="1" spans="2:22">
       <c r="B310" s="42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C310" s="29"/>
       <c r="D310" s="32"/>
@@ -12324,7 +12321,7 @@
     </row>
     <row r="311" outlineLevel="1" spans="2:22">
       <c r="B311" s="30" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C311" s="29"/>
       <c r="D311" s="32"/>
@@ -12350,7 +12347,7 @@
     <row r="312" outlineLevel="1" spans="2:22">
       <c r="B312" s="32"/>
       <c r="C312" s="25" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D312" s="26"/>
       <c r="E312" s="63"/>
@@ -12375,7 +12372,7 @@
     <row r="313" outlineLevel="1" spans="2:22">
       <c r="B313" s="32"/>
       <c r="C313" s="31" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D313" s="32"/>
       <c r="E313" s="67"/>
@@ -12400,7 +12397,7 @@
     <row r="314" outlineLevel="1" spans="2:22">
       <c r="B314" s="32"/>
       <c r="C314" s="25" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D314" s="26"/>
       <c r="E314" s="63"/>
@@ -12425,7 +12422,7 @@
     <row r="315" outlineLevel="1" spans="2:22">
       <c r="B315" s="32"/>
       <c r="C315" s="31" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D315" s="32"/>
       <c r="E315" s="67"/>
@@ -12450,7 +12447,7 @@
     <row r="316" outlineLevel="1" spans="2:22">
       <c r="B316" s="32"/>
       <c r="C316" s="25" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D316" s="26"/>
       <c r="E316" s="63"/>
@@ -12475,7 +12472,7 @@
     <row r="317" outlineLevel="1" spans="2:22">
       <c r="B317" s="32"/>
       <c r="C317" s="31" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D317" s="32"/>
       <c r="E317" s="67"/>
@@ -12500,7 +12497,7 @@
     <row r="318" outlineLevel="1" spans="2:22">
       <c r="B318" s="32"/>
       <c r="C318" s="25" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D318" s="26"/>
       <c r="E318" s="63"/>
@@ -12525,7 +12522,7 @@
     <row r="319" outlineLevel="1" spans="2:22">
       <c r="B319" s="32"/>
       <c r="C319" s="31" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D319" s="32"/>
       <c r="E319" s="67"/>
@@ -12550,7 +12547,7 @@
     <row r="320" outlineLevel="1" spans="2:22">
       <c r="B320" s="32"/>
       <c r="C320" s="25" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D320" s="26"/>
       <c r="E320" s="63"/>
@@ -12575,7 +12572,7 @@
     <row r="321" outlineLevel="1" spans="2:22">
       <c r="B321" s="32"/>
       <c r="C321" s="31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D321" s="32"/>
       <c r="E321" s="67"/>
@@ -12600,7 +12597,7 @@
     <row r="322" outlineLevel="1" spans="2:22">
       <c r="B322" s="32"/>
       <c r="C322" s="25" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D322" s="26"/>
       <c r="E322" s="63"/>
@@ -12625,7 +12622,7 @@
     <row r="323" outlineLevel="1" spans="2:22">
       <c r="B323" s="32"/>
       <c r="C323" s="31" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D323" s="32"/>
       <c r="E323" s="67"/>
@@ -12650,7 +12647,7 @@
     <row r="324" outlineLevel="1" spans="2:22">
       <c r="B324" s="32"/>
       <c r="C324" s="25" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D324" s="26"/>
       <c r="E324" s="63"/>
@@ -12675,7 +12672,7 @@
     <row r="325" outlineLevel="1" spans="2:22">
       <c r="B325" s="32"/>
       <c r="C325" s="31" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D325" s="32"/>
       <c r="E325" s="67"/>
@@ -12722,7 +12719,7 @@
     </row>
     <row r="327" outlineLevel="1" spans="2:22">
       <c r="B327" s="42" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C327" s="29"/>
       <c r="D327" s="32"/>
@@ -12747,7 +12744,7 @@
     </row>
     <row r="328" outlineLevel="1" spans="2:22">
       <c r="B328" s="30" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C328" s="29"/>
       <c r="D328" s="32"/>
@@ -12773,7 +12770,7 @@
     <row r="329" outlineLevel="1" spans="2:22">
       <c r="B329" s="32"/>
       <c r="C329" s="25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D329" s="26"/>
       <c r="E329" s="63"/>
@@ -12798,7 +12795,7 @@
     <row r="330" outlineLevel="1" spans="2:22">
       <c r="B330" s="32"/>
       <c r="C330" s="31" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D330" s="32"/>
       <c r="E330" s="67"/>
@@ -12823,7 +12820,7 @@
     <row r="331" outlineLevel="1" spans="2:22">
       <c r="B331" s="32"/>
       <c r="C331" s="25" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D331" s="26"/>
       <c r="E331" s="63"/>
@@ -12848,7 +12845,7 @@
     <row r="332" outlineLevel="1" spans="2:22">
       <c r="B332" s="32"/>
       <c r="C332" s="31" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D332" s="32"/>
       <c r="E332" s="67"/>
@@ -12873,7 +12870,7 @@
     <row r="333" outlineLevel="1" spans="2:22">
       <c r="B333" s="32"/>
       <c r="C333" s="25" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D333" s="26"/>
       <c r="E333" s="63"/>
@@ -12898,7 +12895,7 @@
     <row r="334" outlineLevel="1" spans="2:22">
       <c r="B334" s="32"/>
       <c r="C334" s="31" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D334" s="32"/>
       <c r="E334" s="67"/>
@@ -12945,7 +12942,7 @@
     </row>
     <row r="336" outlineLevel="1" spans="2:22">
       <c r="B336" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C336" s="29"/>
       <c r="D336" s="32"/>
@@ -12970,7 +12967,7 @@
     </row>
     <row r="337" outlineLevel="1" spans="2:22">
       <c r="B337" s="30" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C337" s="29"/>
       <c r="D337" s="32"/>
@@ -13018,7 +13015,7 @@
     </row>
     <row r="339" outlineLevel="1" spans="2:22">
       <c r="B339" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C339" s="29"/>
       <c r="D339" s="32"/>
@@ -13043,7 +13040,7 @@
     </row>
     <row r="340" ht="28.8" outlineLevel="1" spans="2:22">
       <c r="B340" s="30" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C340" s="29"/>
       <c r="D340" s="32"/>
@@ -13091,7 +13088,7 @@
     </row>
     <row r="342" outlineLevel="1" spans="2:22">
       <c r="B342" s="42" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C342" s="29"/>
       <c r="D342" s="32"/>
@@ -13116,7 +13113,7 @@
     </row>
     <row r="343" outlineLevel="1" spans="2:22">
       <c r="B343" s="30" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C343" s="29"/>
       <c r="D343" s="32"/>
@@ -13164,7 +13161,7 @@
     </row>
     <row r="345" outlineLevel="1" spans="2:22">
       <c r="B345" s="42" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C345" s="29"/>
       <c r="D345" s="32"/>
@@ -13189,7 +13186,7 @@
     </row>
     <row r="346" outlineLevel="1" spans="2:22">
       <c r="B346" s="30" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C346" s="29"/>
       <c r="D346" s="32"/>
@@ -13238,7 +13235,7 @@
     <row r="348" ht="28.8" outlineLevel="1" spans="2:22">
       <c r="B348" s="32"/>
       <c r="C348" s="25" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D348" s="26"/>
       <c r="E348" s="63"/>
@@ -13263,7 +13260,7 @@
     <row r="349" outlineLevel="1" spans="2:22">
       <c r="B349" s="32"/>
       <c r="C349" s="31" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D349" s="32"/>
       <c r="E349" s="67"/>
@@ -13289,7 +13286,7 @@
       <c r="B350" s="32"/>
       <c r="C350" s="29"/>
       <c r="D350" s="45" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E350" s="63"/>
       <c r="F350" s="64"/>
@@ -13314,7 +13311,7 @@
       <c r="B351" s="32"/>
       <c r="C351" s="29"/>
       <c r="D351" s="46" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E351" s="67"/>
       <c r="F351" s="68"/>
@@ -13339,7 +13336,7 @@
       <c r="B352" s="32"/>
       <c r="C352" s="29"/>
       <c r="D352" s="45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E352" s="63"/>
       <c r="F352" s="64"/>
@@ -13364,7 +13361,7 @@
       <c r="B353" s="32"/>
       <c r="C353" s="29"/>
       <c r="D353" s="46" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E353" s="67"/>
       <c r="F353" s="68"/>
@@ -13389,7 +13386,7 @@
       <c r="B354" s="32"/>
       <c r="C354" s="29"/>
       <c r="D354" s="45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E354" s="63"/>
       <c r="F354" s="64"/>
@@ -13414,7 +13411,7 @@
       <c r="B355" s="32"/>
       <c r="C355" s="29"/>
       <c r="D355" s="46" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E355" s="67"/>
       <c r="F355" s="68"/>
@@ -13439,7 +13436,7 @@
       <c r="B356" s="32"/>
       <c r="C356" s="29"/>
       <c r="D356" s="45" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E356" s="63"/>
       <c r="F356" s="64"/>
@@ -13464,7 +13461,7 @@
       <c r="B357" s="32"/>
       <c r="C357" s="29"/>
       <c r="D357" s="46" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E357" s="67"/>
       <c r="F357" s="68"/>
@@ -13489,7 +13486,7 @@
       <c r="B358" s="32"/>
       <c r="C358" s="29"/>
       <c r="D358" s="45" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E358" s="63"/>
       <c r="F358" s="64"/>
@@ -13514,7 +13511,7 @@
       <c r="B359" s="32"/>
       <c r="C359" s="29"/>
       <c r="D359" s="46" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E359" s="67"/>
       <c r="F359" s="68"/>
@@ -13539,7 +13536,7 @@
       <c r="B360" s="32"/>
       <c r="C360" s="29"/>
       <c r="D360" s="45" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E360" s="63"/>
       <c r="F360" s="64"/>
@@ -13564,7 +13561,7 @@
       <c r="B361" s="32"/>
       <c r="C361" s="29"/>
       <c r="D361" s="46" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E361" s="67"/>
       <c r="F361" s="68"/>
@@ -13587,18 +13584,18 @@
     </row>
     <row r="362" spans="2:22">
       <c r="B362" s="42" t="s">
+        <v>428</v>
+      </c>
+      <c r="C362" s="25" t="s">
         <v>429</v>
-      </c>
-      <c r="C362" s="25" t="s">
-        <v>430</v>
       </c>
       <c r="D362" s="32"/>
       <c r="E362" s="27"/>
       <c r="F362" s="28" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G362" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H362" s="29"/>
       <c r="I362" s="29"/>
@@ -13611,7 +13608,7 @@
       <c r="P362" s="29"/>
       <c r="Q362" s="29"/>
       <c r="R362" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S362" s="29"/>
       <c r="T362" s="29"/>
@@ -13620,15 +13617,15 @@
     </row>
     <row r="363" spans="2:22">
       <c r="B363" s="30" t="s">
+        <v>430</v>
+      </c>
+      <c r="C363" s="31" t="s">
         <v>431</v>
-      </c>
-      <c r="C363" s="31" t="s">
-        <v>432</v>
       </c>
       <c r="D363" s="32"/>
       <c r="E363" s="33"/>
       <c r="F363" s="34" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G363" s="29"/>
       <c r="H363" s="34"/>
@@ -13650,15 +13647,15 @@
     <row r="364" spans="2:22">
       <c r="B364" s="32"/>
       <c r="C364" s="25" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D364" s="26"/>
       <c r="E364" s="27"/>
       <c r="F364" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G364" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H364" s="29"/>
       <c r="I364" s="29"/>
@@ -13671,7 +13668,7 @@
       <c r="P364" s="29"/>
       <c r="Q364" s="29"/>
       <c r="R364" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S364" s="29"/>
       <c r="T364" s="29"/>
@@ -13681,12 +13678,12 @@
     <row r="365" spans="2:22">
       <c r="B365" s="32"/>
       <c r="C365" s="43" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D365" s="32"/>
       <c r="E365" s="33"/>
       <c r="F365" s="34" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G365" s="29"/>
       <c r="H365" s="34"/>
@@ -13730,21 +13727,21 @@
     </row>
     <row r="367" ht="28.8" spans="1:22">
       <c r="A367" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B367" s="42" t="s">
+        <v>434</v>
+      </c>
+      <c r="C367" s="25" t="s">
         <v>435</v>
-      </c>
-      <c r="C367" s="25" t="s">
-        <v>436</v>
       </c>
       <c r="D367" s="26"/>
       <c r="E367" s="27"/>
       <c r="F367" s="28" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G367" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H367" s="29"/>
       <c r="I367" s="29"/>
@@ -13757,7 +13754,7 @@
       <c r="P367" s="29"/>
       <c r="Q367" s="29"/>
       <c r="R367" s="29" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="S367" s="29"/>
       <c r="T367" s="29"/>
@@ -13766,15 +13763,15 @@
     </row>
     <row r="368" spans="2:22">
       <c r="B368" s="30" t="s">
+        <v>437</v>
+      </c>
+      <c r="C368" s="43" t="s">
         <v>438</v>
-      </c>
-      <c r="C368" s="43" t="s">
-        <v>439</v>
       </c>
       <c r="D368" s="32"/>
       <c r="E368" s="33"/>
       <c r="F368" s="34" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G368" s="29"/>
       <c r="H368" s="34"/>
@@ -13796,7 +13793,7 @@
     <row r="369" outlineLevel="1" spans="2:22">
       <c r="B369" s="32"/>
       <c r="C369" s="25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D369" s="26"/>
       <c r="E369" s="63"/>
@@ -13821,7 +13818,7 @@
     <row r="370" outlineLevel="1" spans="2:22">
       <c r="B370" s="32"/>
       <c r="C370" s="31" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D370" s="32"/>
       <c r="E370" s="67"/>
@@ -13869,7 +13866,7 @@
     <row r="372" ht="28.8" outlineLevel="1" spans="2:22">
       <c r="B372" s="32"/>
       <c r="C372" s="25" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D372" s="26"/>
       <c r="E372" s="63"/>
@@ -13893,13 +13890,13 @@
     </row>
     <row r="373" ht="16.8" outlineLevel="1" spans="1:22">
       <c r="A373" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B373" s="42" t="s">
+        <v>441</v>
+      </c>
+      <c r="C373" s="31" t="s">
         <v>442</v>
-      </c>
-      <c r="C373" s="31" t="s">
-        <v>443</v>
       </c>
       <c r="D373" s="32"/>
       <c r="E373" s="67"/>
@@ -13923,18 +13920,18 @@
     </row>
     <row r="374" ht="43.2" spans="2:22">
       <c r="B374" s="30" t="s">
+        <v>443</v>
+      </c>
+      <c r="C374" s="25" t="s">
         <v>444</v>
-      </c>
-      <c r="C374" s="25" t="s">
-        <v>445</v>
       </c>
       <c r="D374" s="26"/>
       <c r="E374" s="27"/>
       <c r="F374" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G374" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H374" s="29"/>
       <c r="I374" s="29"/>
@@ -13947,7 +13944,7 @@
       <c r="P374" s="29"/>
       <c r="Q374" s="29"/>
       <c r="R374" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S374" s="29"/>
       <c r="T374" s="29"/>
@@ -13957,12 +13954,12 @@
     <row r="375" ht="28.8" spans="2:22">
       <c r="B375" s="32"/>
       <c r="C375" s="43" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D375" s="32"/>
       <c r="E375" s="33"/>
       <c r="F375" s="34" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G375" s="29"/>
       <c r="H375" s="34"/>
@@ -14006,7 +14003,7 @@
     </row>
     <row r="377" outlineLevel="1" spans="2:22">
       <c r="B377" s="42" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C377" s="29"/>
       <c r="D377" s="32"/>
@@ -14031,7 +14028,7 @@
     </row>
     <row r="378" outlineLevel="1" spans="2:22">
       <c r="B378" s="30" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C378" s="29"/>
       <c r="D378" s="32"/>
@@ -14079,7 +14076,7 @@
     </row>
     <row r="380" outlineLevel="1" spans="2:22">
       <c r="B380" s="42" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C380" s="29"/>
       <c r="D380" s="32"/>
@@ -14104,7 +14101,7 @@
     </row>
     <row r="381" outlineLevel="1" spans="2:22">
       <c r="B381" s="30" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C381" s="29"/>
       <c r="D381" s="32"/>
@@ -14152,17 +14149,17 @@
     </row>
     <row r="383" ht="28.8" spans="2:22">
       <c r="B383" s="42" t="s">
+        <v>450</v>
+      </c>
+      <c r="C383" s="25" t="s">
         <v>451</v>
       </c>
-      <c r="C383" s="25" t="s">
+      <c r="D383" s="45" t="s">
         <v>452</v>
-      </c>
-      <c r="D383" s="45" t="s">
-        <v>453</v>
       </c>
       <c r="E383" s="27"/>
       <c r="F383" s="26" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G383" s="28" t="s">
         <v>59</v>
@@ -14187,17 +14184,17 @@
     </row>
     <row r="384" ht="28.8" spans="2:22">
       <c r="B384" s="30" t="s">
+        <v>453</v>
+      </c>
+      <c r="C384" s="31" t="s">
         <v>454</v>
       </c>
-      <c r="C384" s="31" t="s">
+      <c r="D384" s="46" t="s">
         <v>455</v>
-      </c>
-      <c r="D384" s="46" t="s">
-        <v>456</v>
       </c>
       <c r="E384" s="33"/>
       <c r="F384" s="44" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G384" s="29"/>
       <c r="H384" s="34"/>
@@ -14220,11 +14217,11 @@
       <c r="B385" s="32"/>
       <c r="C385" s="29"/>
       <c r="D385" s="45" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E385" s="63"/>
       <c r="F385" s="26" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G385" s="65"/>
       <c r="H385" s="66"/>
@@ -14247,11 +14244,11 @@
       <c r="B386" s="32"/>
       <c r="C386" s="29"/>
       <c r="D386" s="46" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E386" s="67"/>
       <c r="F386" s="44" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G386" s="66"/>
       <c r="H386" s="69"/>
@@ -14274,11 +14271,11 @@
       <c r="B387" s="32"/>
       <c r="C387" s="29"/>
       <c r="D387" s="45" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E387" s="63"/>
       <c r="F387" s="26" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G387" s="65"/>
       <c r="H387" s="66"/>
@@ -14301,11 +14298,11 @@
       <c r="B388" s="32"/>
       <c r="C388" s="29"/>
       <c r="D388" s="46" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E388" s="67"/>
       <c r="F388" s="44" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G388" s="69"/>
       <c r="H388" s="69"/>
@@ -14328,11 +14325,11 @@
       <c r="B389" s="32"/>
       <c r="C389" s="29"/>
       <c r="D389" s="45" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E389" s="27"/>
       <c r="F389" s="26" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G389" s="28" t="s">
         <v>59</v>
@@ -14359,11 +14356,11 @@
       <c r="B390" s="32"/>
       <c r="C390" s="29"/>
       <c r="D390" s="62" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E390" s="33"/>
       <c r="F390" s="44" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G390" s="29"/>
       <c r="H390" s="34"/>
@@ -14386,11 +14383,11 @@
       <c r="B391" s="32"/>
       <c r="C391" s="29"/>
       <c r="D391" s="45" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E391" s="27"/>
       <c r="F391" s="26" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G391" s="28" t="s">
         <v>59</v>
@@ -14406,7 +14403,7 @@
       <c r="P391" s="29"/>
       <c r="Q391" s="29"/>
       <c r="R391" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S391" s="29"/>
       <c r="T391" s="29"/>
@@ -14417,11 +14414,11 @@
       <c r="B392" s="32"/>
       <c r="C392" s="29"/>
       <c r="D392" s="46" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E392" s="33"/>
       <c r="F392" s="44" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G392" s="29"/>
       <c r="H392" s="34"/>
@@ -14444,11 +14441,11 @@
       <c r="B393" s="32"/>
       <c r="C393" s="29"/>
       <c r="D393" s="45" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E393" s="27"/>
       <c r="F393" s="26" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G393" s="28" t="s">
         <v>59</v>
@@ -14464,7 +14461,7 @@
       <c r="P393" s="29"/>
       <c r="Q393" s="29"/>
       <c r="R393" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S393" s="29"/>
       <c r="T393" s="29"/>
@@ -14475,11 +14472,11 @@
       <c r="B394" s="32"/>
       <c r="C394" s="29"/>
       <c r="D394" s="46" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E394" s="33"/>
       <c r="F394" s="44" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G394" s="29"/>
       <c r="H394" s="34"/>
@@ -14502,11 +14499,11 @@
       <c r="B395" s="32"/>
       <c r="C395" s="29"/>
       <c r="D395" s="45" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E395" s="27"/>
       <c r="F395" s="26" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G395" s="28" t="s">
         <v>59</v>
@@ -14533,11 +14530,11 @@
       <c r="B396" s="32"/>
       <c r="C396" s="29"/>
       <c r="D396" s="62" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E396" s="33"/>
       <c r="F396" s="44" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G396" s="29"/>
       <c r="H396" s="34"/>
@@ -14559,7 +14556,7 @@
     <row r="397" outlineLevel="1" spans="2:22">
       <c r="B397" s="32"/>
       <c r="C397" s="25" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D397" s="32"/>
       <c r="E397" s="63"/>
@@ -14584,7 +14581,7 @@
     <row r="398" outlineLevel="1" spans="2:22">
       <c r="B398" s="32"/>
       <c r="C398" s="31" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D398" s="32"/>
       <c r="E398" s="67"/>
@@ -14610,7 +14607,7 @@
       <c r="B399" s="32"/>
       <c r="C399" s="29"/>
       <c r="D399" s="45" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E399" s="63"/>
       <c r="F399" s="64"/>
@@ -14635,7 +14632,7 @@
       <c r="B400" s="32"/>
       <c r="C400" s="29"/>
       <c r="D400" s="46" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E400" s="67"/>
       <c r="F400" s="68"/>
@@ -14660,7 +14657,7 @@
       <c r="B401" s="32"/>
       <c r="C401" s="29"/>
       <c r="D401" s="45" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E401" s="63"/>
       <c r="F401" s="64"/>
@@ -14685,7 +14682,7 @@
       <c r="B402" s="32"/>
       <c r="C402" s="29"/>
       <c r="D402" s="46" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E402" s="67"/>
       <c r="F402" s="68"/>
@@ -14710,7 +14707,7 @@
       <c r="B403" s="32"/>
       <c r="C403" s="29"/>
       <c r="D403" s="45" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E403" s="63"/>
       <c r="F403" s="64"/>
@@ -14735,7 +14732,7 @@
       <c r="B404" s="32"/>
       <c r="C404" s="29"/>
       <c r="D404" s="46" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E404" s="67"/>
       <c r="F404" s="68"/>
@@ -14760,7 +14757,7 @@
       <c r="B405" s="32"/>
       <c r="C405" s="29"/>
       <c r="D405" s="45" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E405" s="63"/>
       <c r="F405" s="64"/>
@@ -14785,7 +14782,7 @@
       <c r="B406" s="32"/>
       <c r="C406" s="29"/>
       <c r="D406" s="46" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E406" s="67"/>
       <c r="F406" s="68"/>
@@ -14809,7 +14806,7 @@
     <row r="407" outlineLevel="1" spans="2:22">
       <c r="B407" s="32"/>
       <c r="C407" s="25" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D407" s="32"/>
       <c r="E407" s="63"/>
@@ -14834,7 +14831,7 @@
     <row r="408" outlineLevel="1" spans="2:22">
       <c r="B408" s="32"/>
       <c r="C408" s="31" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D408" s="32"/>
       <c r="E408" s="67"/>
@@ -14881,18 +14878,18 @@
     </row>
     <row r="410" spans="2:22">
       <c r="B410" s="42" t="s">
+        <v>480</v>
+      </c>
+      <c r="C410" s="25" t="s">
         <v>481</v>
-      </c>
-      <c r="C410" s="25" t="s">
-        <v>482</v>
       </c>
       <c r="D410" s="26"/>
       <c r="E410" s="27"/>
       <c r="F410" s="28" t="s">
+        <v>481</v>
+      </c>
+      <c r="G410" s="28" t="s">
         <v>482</v>
-      </c>
-      <c r="G410" s="28" t="s">
-        <v>483</v>
       </c>
       <c r="H410" s="29"/>
       <c r="I410" s="29"/>
@@ -14905,7 +14902,7 @@
       <c r="P410" s="29"/>
       <c r="Q410" s="29"/>
       <c r="R410" s="29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="S410" s="29"/>
       <c r="T410" s="29"/>
@@ -14914,15 +14911,15 @@
     </row>
     <row r="411" spans="2:22">
       <c r="B411" s="30" t="s">
+        <v>484</v>
+      </c>
+      <c r="C411" s="31" t="s">
         <v>485</v>
-      </c>
-      <c r="C411" s="31" t="s">
-        <v>486</v>
       </c>
       <c r="D411" s="32"/>
       <c r="E411" s="33"/>
       <c r="F411" s="34" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G411" s="29"/>
       <c r="H411" s="34"/>
@@ -14944,15 +14941,15 @@
     <row r="412" spans="2:22">
       <c r="B412" s="32"/>
       <c r="C412" s="25" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D412" s="26"/>
       <c r="E412" s="27"/>
       <c r="F412" s="28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G412" s="28" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H412" s="29"/>
       <c r="I412" s="29"/>
@@ -14965,7 +14962,7 @@
       <c r="P412" s="29"/>
       <c r="Q412" s="29"/>
       <c r="R412" s="29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="S412" s="29"/>
       <c r="T412" s="29"/>
@@ -14975,12 +14972,12 @@
     <row r="413" spans="2:22">
       <c r="B413" s="32"/>
       <c r="C413" s="31" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D413" s="32"/>
       <c r="E413" s="33"/>
       <c r="F413" s="34" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G413" s="29"/>
       <c r="H413" s="34"/>
@@ -15002,12 +14999,12 @@
     <row r="414" outlineLevel="1" spans="2:22">
       <c r="B414" s="32"/>
       <c r="C414" s="25" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D414" s="26"/>
       <c r="E414" s="63"/>
       <c r="F414" s="28" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G414" s="65"/>
       <c r="H414" s="66"/>
@@ -15029,12 +15026,12 @@
     <row r="415" outlineLevel="1" spans="2:22">
       <c r="B415" s="32"/>
       <c r="C415" s="31" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D415" s="32"/>
       <c r="E415" s="67"/>
       <c r="F415" s="34" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G415" s="69"/>
       <c r="H415" s="69"/>
@@ -15056,15 +15053,15 @@
     <row r="416" spans="2:22">
       <c r="B416" s="32"/>
       <c r="C416" s="25" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D416" s="26"/>
       <c r="E416" s="27"/>
       <c r="F416" s="28" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G416" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H416" s="29"/>
       <c r="I416" s="29"/>
@@ -15077,7 +15074,7 @@
       <c r="P416" s="29"/>
       <c r="Q416" s="29"/>
       <c r="R416" s="29" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="S416" s="29"/>
       <c r="T416" s="29"/>
@@ -15087,12 +15084,12 @@
     <row r="417" spans="2:22">
       <c r="B417" s="32"/>
       <c r="C417" s="43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D417" s="32"/>
       <c r="E417" s="33"/>
       <c r="F417" s="34" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G417" s="29"/>
       <c r="H417" s="34"/>
@@ -15114,12 +15111,12 @@
     <row r="418" outlineLevel="1" spans="2:22">
       <c r="B418" s="32"/>
       <c r="C418" s="25" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D418" s="26"/>
       <c r="E418" s="63"/>
       <c r="F418" s="28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G418" s="65"/>
       <c r="H418" s="66"/>
@@ -15141,12 +15138,12 @@
     <row r="419" outlineLevel="1" spans="2:22">
       <c r="B419" s="32"/>
       <c r="C419" s="31" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D419" s="32"/>
       <c r="E419" s="67"/>
       <c r="F419" s="34" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G419" s="69"/>
       <c r="H419" s="69"/>
@@ -15168,12 +15165,12 @@
     <row r="420" spans="2:22">
       <c r="B420" s="32"/>
       <c r="C420" s="25" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D420" s="26"/>
       <c r="E420" s="27"/>
       <c r="F420" s="28" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G420" s="28" t="s">
         <v>59</v>
@@ -15189,7 +15186,7 @@
       <c r="P420" s="29"/>
       <c r="Q420" s="29"/>
       <c r="R420" s="29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="S420" s="29"/>
       <c r="T420" s="29"/>
@@ -15199,12 +15196,12 @@
     <row r="421" ht="28.8" spans="2:22">
       <c r="B421" s="32"/>
       <c r="C421" s="31" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D421" s="32"/>
       <c r="E421" s="33"/>
       <c r="F421" s="34" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G421" s="29"/>
       <c r="H421" s="34"/>
@@ -15249,15 +15246,15 @@
     <row r="423" spans="1:22">
       <c r="A423" s="72"/>
       <c r="B423" s="42" t="s">
+        <v>496</v>
+      </c>
+      <c r="C423" s="25" t="s">
         <v>497</v>
-      </c>
-      <c r="C423" s="25" t="s">
-        <v>498</v>
       </c>
       <c r="D423" s="26"/>
       <c r="E423" s="27"/>
       <c r="F423" s="28" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G423" s="28" t="s">
         <v>59</v>
@@ -15273,7 +15270,7 @@
       <c r="P423" s="29"/>
       <c r="Q423" s="29"/>
       <c r="R423" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S423" s="29"/>
       <c r="T423" s="29"/>
@@ -15283,15 +15280,15 @@
     <row r="424" spans="1:22">
       <c r="A424" s="72"/>
       <c r="B424" s="30" t="s">
+        <v>498</v>
+      </c>
+      <c r="C424" s="43" t="s">
         <v>499</v>
-      </c>
-      <c r="C424" s="43" t="s">
-        <v>500</v>
       </c>
       <c r="D424" s="32"/>
       <c r="E424" s="33"/>
       <c r="F424" s="34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G424" s="29"/>
       <c r="H424" s="34"/>
@@ -15314,12 +15311,12 @@
       <c r="A425" s="72"/>
       <c r="B425" s="32"/>
       <c r="C425" s="25" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D425" s="26"/>
       <c r="E425" s="27"/>
       <c r="F425" s="28" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G425" s="28" t="s">
         <v>59</v>
@@ -15335,7 +15332,7 @@
       <c r="P425" s="29"/>
       <c r="Q425" s="29"/>
       <c r="R425" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S425" s="29"/>
       <c r="T425" s="29"/>
@@ -15346,12 +15343,12 @@
       <c r="A426" s="72"/>
       <c r="B426" s="32"/>
       <c r="C426" s="43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D426" s="32"/>
       <c r="E426" s="33"/>
       <c r="F426" s="34" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G426" s="29"/>
       <c r="H426" s="34"/>
@@ -15374,12 +15371,12 @@
       <c r="A427" s="72"/>
       <c r="B427" s="32"/>
       <c r="C427" s="25" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D427" s="26"/>
       <c r="E427" s="27"/>
       <c r="F427" s="28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G427" s="28" t="s">
         <v>59</v>
@@ -15395,7 +15392,7 @@
       <c r="P427" s="29"/>
       <c r="Q427" s="29"/>
       <c r="R427" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S427" s="29"/>
       <c r="T427" s="29"/>
@@ -15406,12 +15403,12 @@
       <c r="A428" s="72"/>
       <c r="B428" s="32"/>
       <c r="C428" s="31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D428" s="32"/>
       <c r="E428" s="33"/>
       <c r="F428" s="34" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G428" s="29"/>
       <c r="H428" s="34"/>
@@ -15434,12 +15431,12 @@
       <c r="A429" s="72"/>
       <c r="B429" s="32"/>
       <c r="C429" s="25" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D429" s="26"/>
       <c r="E429" s="27"/>
       <c r="F429" s="28" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G429" s="28" t="s">
         <v>59</v>
@@ -15455,7 +15452,7 @@
       <c r="P429" s="29"/>
       <c r="Q429" s="29"/>
       <c r="R429" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S429" s="29"/>
       <c r="T429" s="29"/>
@@ -15466,12 +15463,12 @@
       <c r="A430" s="72"/>
       <c r="B430" s="32"/>
       <c r="C430" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D430" s="32"/>
       <c r="E430" s="33"/>
       <c r="F430" s="34" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G430" s="29"/>
       <c r="H430" s="34"/>
@@ -15517,18 +15514,18 @@
     <row r="432" spans="1:22">
       <c r="A432" s="72"/>
       <c r="B432" s="42" t="s">
+        <v>506</v>
+      </c>
+      <c r="C432" s="25" t="s">
         <v>507</v>
-      </c>
-      <c r="C432" s="25" t="s">
-        <v>508</v>
       </c>
       <c r="D432" s="26"/>
       <c r="E432" s="27"/>
       <c r="F432" s="28" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G432" s="29" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H432" s="29"/>
       <c r="I432" s="29"/>
@@ -15541,7 +15538,7 @@
       <c r="P432" s="29"/>
       <c r="Q432" s="29"/>
       <c r="R432" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S432" s="29"/>
       <c r="T432" s="29"/>
@@ -15551,15 +15548,15 @@
     <row r="433" spans="1:22">
       <c r="A433" s="72"/>
       <c r="B433" s="30" t="s">
+        <v>508</v>
+      </c>
+      <c r="C433" s="43" t="s">
         <v>509</v>
-      </c>
-      <c r="C433" s="43" t="s">
-        <v>510</v>
       </c>
       <c r="D433" s="32"/>
       <c r="E433" s="33"/>
       <c r="F433" s="34" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G433" s="29"/>
       <c r="H433" s="34"/>
@@ -15582,15 +15579,15 @@
       <c r="A434" s="72"/>
       <c r="B434" s="32"/>
       <c r="C434" s="25" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D434" s="26"/>
       <c r="E434" s="27"/>
       <c r="F434" s="28" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G434" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H434" s="29"/>
       <c r="I434" s="29"/>
@@ -15603,7 +15600,7 @@
       <c r="P434" s="29"/>
       <c r="Q434" s="29"/>
       <c r="R434" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S434" s="29"/>
       <c r="T434" s="29"/>
@@ -15614,12 +15611,12 @@
       <c r="A435" s="72"/>
       <c r="B435" s="32"/>
       <c r="C435" s="31" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D435" s="32"/>
       <c r="E435" s="33"/>
       <c r="F435" s="34" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G435" s="29"/>
       <c r="H435" s="34"/>
@@ -15642,15 +15639,15 @@
       <c r="A436" s="72"/>
       <c r="B436" s="32"/>
       <c r="C436" s="25" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D436" s="26"/>
       <c r="E436" s="27"/>
       <c r="F436" s="28" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G436" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H436" s="29"/>
       <c r="I436" s="29"/>
@@ -15663,7 +15660,7 @@
       <c r="P436" s="29"/>
       <c r="Q436" s="29"/>
       <c r="R436" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S436" s="29"/>
       <c r="T436" s="29"/>
@@ -15674,12 +15671,12 @@
       <c r="A437" s="72"/>
       <c r="B437" s="32"/>
       <c r="C437" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D437" s="32"/>
       <c r="E437" s="33"/>
       <c r="F437" s="34" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G437" s="29"/>
       <c r="H437" s="34"/>
@@ -15702,15 +15699,15 @@
       <c r="A438" s="72"/>
       <c r="B438" s="32"/>
       <c r="C438" s="25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D438" s="26"/>
       <c r="E438" s="27"/>
       <c r="F438" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G438" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H438" s="29"/>
       <c r="I438" s="29"/>
@@ -15723,7 +15720,7 @@
       <c r="P438" s="29"/>
       <c r="Q438" s="29"/>
       <c r="R438" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S438" s="29"/>
       <c r="T438" s="29"/>
@@ -15734,12 +15731,12 @@
       <c r="A439" s="72"/>
       <c r="B439" s="32"/>
       <c r="C439" s="43" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D439" s="32"/>
       <c r="E439" s="33"/>
       <c r="F439" s="34" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G439" s="29"/>
       <c r="H439" s="34"/>
@@ -15762,15 +15759,15 @@
       <c r="A440" s="72"/>
       <c r="B440" s="32"/>
       <c r="C440" s="25" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D440" s="26"/>
       <c r="E440" s="27"/>
       <c r="F440" s="28" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G440" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H440" s="29"/>
       <c r="I440" s="29"/>
@@ -15783,7 +15780,7 @@
       <c r="P440" s="29"/>
       <c r="Q440" s="29"/>
       <c r="R440" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S440" s="29"/>
       <c r="T440" s="29"/>
@@ -15794,12 +15791,12 @@
       <c r="A441" s="72"/>
       <c r="B441" s="32"/>
       <c r="C441" s="31" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D441" s="32"/>
       <c r="E441" s="33"/>
       <c r="F441" s="34" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G441" s="29"/>
       <c r="H441" s="34"/>
@@ -15822,15 +15819,15 @@
       <c r="A442" s="72"/>
       <c r="B442" s="32"/>
       <c r="C442" s="25" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D442" s="26"/>
       <c r="E442" s="27"/>
       <c r="F442" s="28" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G442" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H442" s="29"/>
       <c r="I442" s="29"/>
@@ -15843,7 +15840,7 @@
       <c r="P442" s="29"/>
       <c r="Q442" s="29"/>
       <c r="R442" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S442" s="29"/>
       <c r="T442" s="29"/>
@@ -15854,12 +15851,12 @@
       <c r="A443" s="72"/>
       <c r="B443" s="32"/>
       <c r="C443" s="43" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D443" s="32"/>
       <c r="E443" s="33"/>
       <c r="F443" s="34" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G443" s="29"/>
       <c r="H443" s="34"/>
@@ -15882,15 +15879,15 @@
       <c r="A444" s="72"/>
       <c r="B444" s="32"/>
       <c r="C444" s="25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D444" s="26"/>
       <c r="E444" s="27"/>
       <c r="F444" s="28" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G444" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H444" s="29"/>
       <c r="I444" s="29"/>
@@ -15903,7 +15900,7 @@
       <c r="P444" s="29"/>
       <c r="Q444" s="29"/>
       <c r="R444" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S444" s="29"/>
       <c r="T444" s="29"/>
@@ -15914,12 +15911,12 @@
       <c r="A445" s="72"/>
       <c r="B445" s="32"/>
       <c r="C445" s="31" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D445" s="32"/>
       <c r="E445" s="33"/>
       <c r="F445" s="34" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G445" s="29"/>
       <c r="H445" s="34"/>
@@ -15942,15 +15939,15 @@
       <c r="A446" s="72"/>
       <c r="B446" s="32"/>
       <c r="C446" s="25" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D446" s="26"/>
       <c r="E446" s="27"/>
       <c r="F446" s="28" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G446" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H446" s="29"/>
       <c r="I446" s="29"/>
@@ -15963,7 +15960,7 @@
       <c r="P446" s="29"/>
       <c r="Q446" s="29"/>
       <c r="R446" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S446" s="29"/>
       <c r="T446" s="29"/>
@@ -15974,12 +15971,12 @@
       <c r="A447" s="72"/>
       <c r="B447" s="32"/>
       <c r="C447" s="43" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D447" s="32"/>
       <c r="E447" s="33"/>
       <c r="F447" s="34" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G447" s="29"/>
       <c r="H447" s="34"/>
@@ -16002,15 +15999,15 @@
       <c r="A448" s="72"/>
       <c r="B448" s="32"/>
       <c r="C448" s="25" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D448" s="26"/>
       <c r="E448" s="27"/>
       <c r="F448" s="28" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G448" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H448" s="29"/>
       <c r="I448" s="29"/>
@@ -16023,7 +16020,7 @@
       <c r="P448" s="29"/>
       <c r="Q448" s="29"/>
       <c r="R448" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S448" s="29"/>
       <c r="T448" s="29"/>
@@ -16034,12 +16031,12 @@
       <c r="A449" s="72"/>
       <c r="B449" s="32"/>
       <c r="C449" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D449" s="32"/>
       <c r="E449" s="33"/>
       <c r="F449" s="34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G449" s="29"/>
       <c r="H449" s="34"/>
@@ -16062,15 +16059,15 @@
       <c r="A450" s="72"/>
       <c r="B450" s="32"/>
       <c r="C450" s="25" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D450" s="26"/>
       <c r="E450" s="27"/>
       <c r="F450" s="28" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G450" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H450" s="29"/>
       <c r="I450" s="29"/>
@@ -16083,7 +16080,7 @@
       <c r="P450" s="29"/>
       <c r="Q450" s="29"/>
       <c r="R450" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S450" s="29"/>
       <c r="T450" s="29"/>
@@ -16094,12 +16091,12 @@
       <c r="A451" s="72"/>
       <c r="B451" s="32"/>
       <c r="C451" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D451" s="32"/>
       <c r="E451" s="33"/>
       <c r="F451" s="34" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G451" s="29"/>
       <c r="H451" s="34"/>
@@ -16122,15 +16119,15 @@
       <c r="A452" s="72"/>
       <c r="B452" s="32"/>
       <c r="C452" s="25" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D452" s="26"/>
       <c r="E452" s="27"/>
       <c r="F452" s="28" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G452" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H452" s="29"/>
       <c r="I452" s="29"/>
@@ -16143,7 +16140,7 @@
       <c r="P452" s="29"/>
       <c r="Q452" s="29"/>
       <c r="R452" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S452" s="29"/>
       <c r="T452" s="29"/>
@@ -16154,12 +16151,12 @@
       <c r="A453" s="72"/>
       <c r="B453" s="32"/>
       <c r="C453" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D453" s="32"/>
       <c r="E453" s="33"/>
       <c r="F453" s="34" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G453" s="29"/>
       <c r="H453" s="34"/>
@@ -16205,18 +16202,18 @@
     <row r="455" spans="1:22">
       <c r="A455" s="72"/>
       <c r="B455" s="42" t="s">
+        <v>530</v>
+      </c>
+      <c r="C455" s="25" t="s">
         <v>531</v>
-      </c>
-      <c r="C455" s="25" t="s">
-        <v>532</v>
       </c>
       <c r="D455" s="26"/>
       <c r="E455" s="27"/>
       <c r="F455" s="28" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G455" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H455" s="29"/>
       <c r="I455" s="29"/>
@@ -16229,7 +16226,7 @@
       <c r="P455" s="29"/>
       <c r="Q455" s="29"/>
       <c r="R455" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S455" s="29"/>
       <c r="T455" s="29"/>
@@ -16239,15 +16236,15 @@
     <row r="456" ht="28.8" spans="1:22">
       <c r="A456" s="72"/>
       <c r="B456" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C456" s="31" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D456" s="32"/>
       <c r="E456" s="33"/>
       <c r="F456" s="34" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G456" s="29"/>
       <c r="H456" s="34"/>
@@ -16270,15 +16267,15 @@
       <c r="A457" s="72"/>
       <c r="B457" s="32"/>
       <c r="C457" s="53" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D457" s="26"/>
       <c r="E457" s="27"/>
       <c r="F457" s="29" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="G457" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H457" s="29"/>
       <c r="I457" s="29"/>
@@ -16291,7 +16288,7 @@
       <c r="P457" s="29"/>
       <c r="Q457" s="29"/>
       <c r="R457" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S457" s="29"/>
       <c r="T457" s="29"/>
@@ -16302,12 +16299,12 @@
       <c r="A458" s="72"/>
       <c r="B458" s="32"/>
       <c r="C458" s="73" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D458" s="32"/>
       <c r="E458" s="33"/>
       <c r="F458" s="29" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="G458" s="29"/>
       <c r="H458" s="34"/>
@@ -16330,15 +16327,15 @@
       <c r="A459" s="72"/>
       <c r="B459" s="32"/>
       <c r="C459" s="25" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D459" s="26"/>
       <c r="E459" s="27"/>
       <c r="F459" s="28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G459" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H459" s="29"/>
       <c r="I459" s="29"/>
@@ -16351,7 +16348,7 @@
       <c r="P459" s="29"/>
       <c r="Q459" s="29"/>
       <c r="R459" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S459" s="29"/>
       <c r="T459" s="29"/>
@@ -16362,12 +16359,12 @@
       <c r="A460" s="72"/>
       <c r="B460" s="32"/>
       <c r="C460" s="43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D460" s="32"/>
       <c r="E460" s="33"/>
       <c r="F460" s="34" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G460" s="29"/>
       <c r="H460" s="34"/>
@@ -16390,15 +16387,15 @@
       <c r="A461" s="72"/>
       <c r="B461" s="32"/>
       <c r="C461" s="25" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D461" s="26"/>
       <c r="E461" s="27"/>
       <c r="F461" s="28" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G461" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H461" s="29"/>
       <c r="I461" s="29"/>
@@ -16411,7 +16408,7 @@
       <c r="P461" s="29"/>
       <c r="Q461" s="29"/>
       <c r="R461" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S461" s="29"/>
       <c r="T461" s="29"/>
@@ -16422,12 +16419,12 @@
       <c r="A462" s="72"/>
       <c r="B462" s="32"/>
       <c r="C462" s="31" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D462" s="32"/>
       <c r="E462" s="33"/>
       <c r="F462" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="G462" s="29"/>
       <c r="H462" s="34"/>
@@ -16450,15 +16447,15 @@
       <c r="A463" s="72"/>
       <c r="B463" s="32"/>
       <c r="C463" s="25" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D463" s="26"/>
       <c r="E463" s="27"/>
       <c r="F463" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="G463" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H463" s="29"/>
       <c r="I463" s="29"/>
@@ -16471,7 +16468,7 @@
       <c r="P463" s="29"/>
       <c r="Q463" s="29"/>
       <c r="R463" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S463" s="29"/>
       <c r="T463" s="29"/>
@@ -16482,12 +16479,12 @@
       <c r="A464" s="72"/>
       <c r="B464" s="32"/>
       <c r="C464" s="31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D464" s="32"/>
       <c r="E464" s="33"/>
       <c r="F464" s="34" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G464" s="29"/>
       <c r="H464" s="34"/>
@@ -16510,15 +16507,15 @@
       <c r="A465" s="72"/>
       <c r="B465" s="32"/>
       <c r="C465" s="25" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D465" s="26"/>
       <c r="E465" s="27"/>
       <c r="F465" s="28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G465" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H465" s="29"/>
       <c r="I465" s="29"/>
@@ -16531,7 +16528,7 @@
       <c r="P465" s="29"/>
       <c r="Q465" s="29"/>
       <c r="R465" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S465" s="29"/>
       <c r="T465" s="29"/>
@@ -16542,12 +16539,12 @@
       <c r="A466" s="72"/>
       <c r="B466" s="32"/>
       <c r="C466" s="43" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D466" s="32"/>
       <c r="E466" s="33"/>
       <c r="F466" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G466" s="29"/>
       <c r="H466" s="34"/>
@@ -16570,17 +16567,17 @@
       <c r="A467" s="72"/>
       <c r="B467" s="32"/>
       <c r="C467" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="D467" s="45" t="s">
         <v>544</v>
-      </c>
-      <c r="D467" s="45" t="s">
-        <v>545</v>
       </c>
       <c r="E467" s="27"/>
       <c r="F467" s="26" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G467" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H467" s="29"/>
       <c r="I467" s="29"/>
@@ -16593,7 +16590,7 @@
       <c r="P467" s="29"/>
       <c r="Q467" s="29"/>
       <c r="R467" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S467" s="29"/>
       <c r="T467" s="29"/>
@@ -16604,14 +16601,14 @@
       <c r="A468" s="72"/>
       <c r="B468" s="32"/>
       <c r="C468" s="31" t="s">
+        <v>545</v>
+      </c>
+      <c r="D468" s="46" t="s">
         <v>546</v>
-      </c>
-      <c r="D468" s="46" t="s">
-        <v>547</v>
       </c>
       <c r="E468" s="33"/>
       <c r="F468" s="44" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="G468" s="29"/>
       <c r="H468" s="34"/>
@@ -16635,14 +16632,14 @@
       <c r="B469" s="32"/>
       <c r="C469" s="29"/>
       <c r="D469" s="45" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E469" s="27"/>
       <c r="F469" s="26" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="G469" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H469" s="29"/>
       <c r="I469" s="29"/>
@@ -16655,7 +16652,7 @@
       <c r="P469" s="29"/>
       <c r="Q469" s="29"/>
       <c r="R469" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S469" s="29"/>
       <c r="T469" s="29"/>
@@ -16667,11 +16664,11 @@
       <c r="B470" s="32"/>
       <c r="C470" s="29"/>
       <c r="D470" s="62" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E470" s="33"/>
       <c r="F470" s="44" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="G470" s="29"/>
       <c r="H470" s="34"/>
@@ -16695,14 +16692,14 @@
       <c r="B471" s="32"/>
       <c r="C471" s="29"/>
       <c r="D471" s="45" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E471" s="27"/>
       <c r="F471" s="26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G471" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H471" s="29"/>
       <c r="I471" s="29"/>
@@ -16715,7 +16712,7 @@
       <c r="P471" s="29"/>
       <c r="Q471" s="29"/>
       <c r="R471" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S471" s="29"/>
       <c r="T471" s="29"/>
@@ -16727,11 +16724,11 @@
       <c r="B472" s="32"/>
       <c r="C472" s="29"/>
       <c r="D472" s="46" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E472" s="33"/>
       <c r="F472" s="44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="G472" s="29"/>
       <c r="H472" s="34"/>
@@ -16754,15 +16751,15 @@
       <c r="A473" s="72"/>
       <c r="B473" s="32"/>
       <c r="C473" s="25" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D473" s="32"/>
       <c r="E473" s="27"/>
       <c r="F473" s="28" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="G473" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H473" s="29"/>
       <c r="I473" s="29"/>
@@ -16775,7 +16772,7 @@
       <c r="P473" s="29"/>
       <c r="Q473" s="29"/>
       <c r="R473" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S473" s="29"/>
       <c r="T473" s="29"/>
@@ -16786,12 +16783,12 @@
       <c r="A474" s="72"/>
       <c r="B474" s="32"/>
       <c r="C474" s="31" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D474" s="32"/>
       <c r="E474" s="33"/>
       <c r="F474" s="34" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="G474" s="29"/>
       <c r="H474" s="34"/>
@@ -16814,15 +16811,15 @@
       <c r="A475" s="72"/>
       <c r="B475" s="32"/>
       <c r="C475" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D475" s="26"/>
       <c r="E475" s="27"/>
       <c r="F475" s="28" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G475" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H475" s="29"/>
       <c r="I475" s="29"/>
@@ -16835,7 +16832,7 @@
       <c r="P475" s="29"/>
       <c r="Q475" s="29"/>
       <c r="R475" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S475" s="29"/>
       <c r="T475" s="29"/>
@@ -16846,12 +16843,12 @@
       <c r="A476" s="72"/>
       <c r="B476" s="32"/>
       <c r="C476" s="31" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D476" s="32"/>
       <c r="E476" s="33"/>
       <c r="F476" s="34" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G476" s="29"/>
       <c r="H476" s="34"/>
@@ -16874,15 +16871,15 @@
       <c r="A477" s="72"/>
       <c r="B477" s="32"/>
       <c r="C477" s="25" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D477" s="26"/>
       <c r="E477" s="27"/>
       <c r="F477" s="28" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G477" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H477" s="29"/>
       <c r="I477" s="29"/>
@@ -16895,7 +16892,7 @@
       <c r="P477" s="29"/>
       <c r="Q477" s="29"/>
       <c r="R477" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S477" s="29"/>
       <c r="T477" s="29"/>
@@ -16906,12 +16903,12 @@
       <c r="A478" s="72"/>
       <c r="B478" s="32"/>
       <c r="C478" s="43" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D478" s="32"/>
       <c r="E478" s="33"/>
       <c r="F478" s="34" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G478" s="29"/>
       <c r="H478" s="34"/>
@@ -16934,15 +16931,15 @@
       <c r="A479" s="72"/>
       <c r="B479" s="32"/>
       <c r="C479" s="25" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D479" s="26"/>
       <c r="E479" s="27"/>
       <c r="F479" s="28" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G479" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H479" s="29"/>
       <c r="I479" s="29"/>
@@ -16955,7 +16952,7 @@
       <c r="P479" s="29"/>
       <c r="Q479" s="29"/>
       <c r="R479" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S479" s="29"/>
       <c r="T479" s="29"/>
@@ -16966,12 +16963,12 @@
       <c r="A480" s="72"/>
       <c r="B480" s="32"/>
       <c r="C480" s="31" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D480" s="32"/>
       <c r="E480" s="33"/>
       <c r="F480" s="34" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G480" s="29"/>
       <c r="H480" s="34"/>
@@ -16994,15 +16991,15 @@
       <c r="A481" s="72"/>
       <c r="B481" s="32"/>
       <c r="C481" s="25" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D481" s="26"/>
       <c r="E481" s="27"/>
       <c r="F481" s="28" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G481" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H481" s="29"/>
       <c r="I481" s="29"/>
@@ -17015,7 +17012,7 @@
       <c r="P481" s="29"/>
       <c r="Q481" s="29"/>
       <c r="R481" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S481" s="29"/>
       <c r="T481" s="29"/>
@@ -17026,12 +17023,12 @@
       <c r="A482" s="72"/>
       <c r="B482" s="32"/>
       <c r="C482" s="43" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D482" s="32"/>
       <c r="E482" s="33"/>
       <c r="F482" s="34" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="G482" s="29"/>
       <c r="H482" s="34"/>
@@ -17054,15 +17051,15 @@
       <c r="A483" s="72"/>
       <c r="B483" s="32"/>
       <c r="C483" s="25" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D483" s="26"/>
       <c r="E483" s="27"/>
       <c r="F483" s="28" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="G483" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H483" s="29"/>
       <c r="I483" s="29"/>
@@ -17075,7 +17072,7 @@
       <c r="P483" s="29"/>
       <c r="Q483" s="29"/>
       <c r="R483" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S483" s="29"/>
       <c r="T483" s="29"/>
@@ -17086,12 +17083,12 @@
       <c r="A484" s="72"/>
       <c r="B484" s="32"/>
       <c r="C484" s="31" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D484" s="32"/>
       <c r="E484" s="33"/>
       <c r="F484" s="34" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="G484" s="29"/>
       <c r="H484" s="34"/>
@@ -17114,15 +17111,15 @@
       <c r="A485" s="72"/>
       <c r="B485" s="32"/>
       <c r="C485" s="25" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D485" s="26"/>
       <c r="E485" s="27"/>
       <c r="F485" s="28" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="G485" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H485" s="29"/>
       <c r="I485" s="29"/>
@@ -17135,7 +17132,7 @@
       <c r="P485" s="29"/>
       <c r="Q485" s="29"/>
       <c r="R485" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S485" s="29"/>
       <c r="T485" s="29"/>
@@ -17146,12 +17143,12 @@
       <c r="A486" s="72"/>
       <c r="B486" s="32"/>
       <c r="C486" s="31" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D486" s="32"/>
       <c r="E486" s="33"/>
       <c r="F486" s="34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G486" s="29"/>
       <c r="H486" s="34"/>
@@ -17174,15 +17171,15 @@
       <c r="A487" s="72"/>
       <c r="B487" s="32"/>
       <c r="C487" s="25" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D487" s="26"/>
       <c r="E487" s="27"/>
       <c r="F487" s="28" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="G487" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H487" s="29"/>
       <c r="I487" s="29"/>
@@ -17195,7 +17192,7 @@
       <c r="P487" s="29"/>
       <c r="Q487" s="29"/>
       <c r="R487" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S487" s="29"/>
       <c r="T487" s="29"/>
@@ -17206,12 +17203,12 @@
       <c r="A488" s="72"/>
       <c r="B488" s="32"/>
       <c r="C488" s="31" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D488" s="32"/>
       <c r="E488" s="33"/>
       <c r="F488" s="34" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="G488" s="29"/>
       <c r="H488" s="34"/>
@@ -17234,15 +17231,15 @@
       <c r="A489" s="72"/>
       <c r="B489" s="32"/>
       <c r="C489" s="25" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D489" s="26"/>
       <c r="E489" s="27"/>
       <c r="F489" s="28" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="G489" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H489" s="29"/>
       <c r="I489" s="29"/>
@@ -17255,7 +17252,7 @@
       <c r="P489" s="29"/>
       <c r="Q489" s="29"/>
       <c r="R489" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S489" s="29"/>
       <c r="T489" s="29"/>
@@ -17266,12 +17263,12 @@
       <c r="A490" s="72"/>
       <c r="B490" s="32"/>
       <c r="C490" s="31" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="D490" s="32"/>
       <c r="E490" s="33"/>
       <c r="F490" s="34" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="G490" s="29"/>
       <c r="H490" s="34"/>
@@ -17294,15 +17291,15 @@
       <c r="A491" s="72"/>
       <c r="B491" s="32"/>
       <c r="C491" s="25" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D491" s="26"/>
       <c r="E491" s="27"/>
       <c r="F491" s="28" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="G491" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H491" s="29"/>
       <c r="I491" s="29"/>
@@ -17315,7 +17312,7 @@
       <c r="P491" s="29"/>
       <c r="Q491" s="29"/>
       <c r="R491" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S491" s="29"/>
       <c r="T491" s="29"/>
@@ -17326,12 +17323,12 @@
       <c r="A492" s="72"/>
       <c r="B492" s="32"/>
       <c r="C492" s="31" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D492" s="32"/>
       <c r="E492" s="33"/>
       <c r="F492" s="34" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G492" s="29"/>
       <c r="H492" s="34"/>
@@ -17354,17 +17351,17 @@
       <c r="A493" s="72"/>
       <c r="B493" s="32"/>
       <c r="C493" s="25" t="s">
+        <v>571</v>
+      </c>
+      <c r="D493" s="45" t="s">
         <v>572</v>
-      </c>
-      <c r="D493" s="45" t="s">
-        <v>573</v>
       </c>
       <c r="E493" s="27"/>
       <c r="F493" s="26" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="G493" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H493" s="29"/>
       <c r="I493" s="29"/>
@@ -17377,7 +17374,7 @@
       <c r="P493" s="29"/>
       <c r="Q493" s="29"/>
       <c r="R493" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S493" s="29"/>
       <c r="T493" s="29"/>
@@ -17388,14 +17385,14 @@
       <c r="A494" s="72"/>
       <c r="B494" s="32"/>
       <c r="C494" s="31" t="s">
+        <v>573</v>
+      </c>
+      <c r="D494" s="46" t="s">
         <v>574</v>
-      </c>
-      <c r="D494" s="46" t="s">
-        <v>575</v>
       </c>
       <c r="E494" s="33"/>
       <c r="F494" s="44" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G494" s="29"/>
       <c r="H494" s="34"/>
@@ -17419,14 +17416,14 @@
       <c r="B495" s="32"/>
       <c r="C495" s="29"/>
       <c r="D495" s="45" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E495" s="27"/>
       <c r="F495" s="26" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="G495" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H495" s="29"/>
       <c r="I495" s="29"/>
@@ -17439,7 +17436,7 @@
       <c r="P495" s="29"/>
       <c r="Q495" s="29"/>
       <c r="R495" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S495" s="29"/>
       <c r="T495" s="29"/>
@@ -17451,11 +17448,11 @@
       <c r="B496" s="32"/>
       <c r="C496" s="29"/>
       <c r="D496" s="46" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E496" s="33"/>
       <c r="F496" s="44" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="G496" s="29"/>
       <c r="H496" s="34"/>
@@ -17479,14 +17476,14 @@
       <c r="B497" s="32"/>
       <c r="C497" s="29"/>
       <c r="D497" s="45" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E497" s="27"/>
       <c r="F497" s="26" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G497" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H497" s="29"/>
       <c r="I497" s="29"/>
@@ -17499,7 +17496,7 @@
       <c r="P497" s="29"/>
       <c r="Q497" s="29"/>
       <c r="R497" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S497" s="29"/>
       <c r="T497" s="29"/>
@@ -17511,11 +17508,11 @@
       <c r="B498" s="32"/>
       <c r="C498" s="29"/>
       <c r="D498" s="46" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E498" s="33"/>
       <c r="F498" s="44" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G498" s="29"/>
       <c r="H498" s="34"/>
@@ -17539,14 +17536,14 @@
       <c r="B499" s="32"/>
       <c r="C499" s="29"/>
       <c r="D499" s="45" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E499" s="27"/>
       <c r="F499" s="26" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G499" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H499" s="29"/>
       <c r="I499" s="29"/>
@@ -17559,7 +17556,7 @@
       <c r="P499" s="29"/>
       <c r="Q499" s="29"/>
       <c r="R499" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S499" s="29"/>
       <c r="T499" s="29"/>
@@ -17571,11 +17568,11 @@
       <c r="B500" s="32"/>
       <c r="C500" s="29"/>
       <c r="D500" s="46" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E500" s="33"/>
       <c r="F500" s="44" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G500" s="29"/>
       <c r="H500" s="34"/>
@@ -17598,15 +17595,15 @@
       <c r="A501" s="72"/>
       <c r="B501" s="32"/>
       <c r="C501" s="25" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D501" s="32"/>
       <c r="E501" s="27"/>
       <c r="F501" s="28" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G501" s="28" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H501" s="29"/>
       <c r="I501" s="29"/>
@@ -17619,7 +17616,7 @@
       <c r="P501" s="29"/>
       <c r="Q501" s="29"/>
       <c r="R501" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S501" s="29"/>
       <c r="T501" s="29"/>
@@ -17630,12 +17627,12 @@
       <c r="A502" s="72"/>
       <c r="B502" s="32"/>
       <c r="C502" s="31" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="D502" s="32"/>
       <c r="E502" s="33"/>
       <c r="F502" s="34" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G502" s="29"/>
       <c r="H502" s="34"/>
@@ -17679,15 +17676,15 @@
     </row>
     <row r="504" spans="2:22">
       <c r="B504" s="42" t="s">
+        <v>583</v>
+      </c>
+      <c r="C504" s="25" t="s">
         <v>584</v>
-      </c>
-      <c r="C504" s="25" t="s">
-        <v>585</v>
       </c>
       <c r="D504" s="26"/>
       <c r="E504" s="27"/>
       <c r="F504" s="28" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G504" s="28" t="s">
         <v>59</v>
@@ -17712,15 +17709,15 @@
     </row>
     <row r="505" spans="2:22">
       <c r="B505" s="30" t="s">
+        <v>585</v>
+      </c>
+      <c r="C505" s="43" t="s">
         <v>586</v>
-      </c>
-      <c r="C505" s="43" t="s">
-        <v>587</v>
       </c>
       <c r="D505" s="32"/>
       <c r="E505" s="33"/>
       <c r="F505" s="34" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G505" s="29"/>
       <c r="H505" s="34"/>
@@ -17742,12 +17739,12 @@
     <row r="506" ht="28.8" spans="2:22">
       <c r="B506" s="32"/>
       <c r="C506" s="25" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D506" s="26"/>
       <c r="E506" s="27"/>
       <c r="F506" s="28" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G506" s="28" t="s">
         <v>59</v>
@@ -17773,12 +17770,12 @@
     <row r="507" spans="2:22">
       <c r="B507" s="32"/>
       <c r="C507" s="31" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D507" s="32"/>
       <c r="E507" s="33"/>
       <c r="F507" s="34" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G507" s="29"/>
       <c r="H507" s="34"/>
@@ -17800,12 +17797,12 @@
     <row r="508" spans="2:22">
       <c r="B508" s="32"/>
       <c r="C508" s="25" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D508" s="26"/>
       <c r="E508" s="27"/>
       <c r="F508" s="28" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G508" s="28" t="s">
         <v>59</v>
@@ -17821,7 +17818,7 @@
       <c r="P508" s="29"/>
       <c r="Q508" s="29"/>
       <c r="R508" s="29" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="S508" s="29"/>
       <c r="T508" s="29"/>
@@ -17831,12 +17828,12 @@
     <row r="509" spans="2:22">
       <c r="B509" s="32"/>
       <c r="C509" s="31" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D509" s="32"/>
       <c r="E509" s="33"/>
       <c r="F509" s="34" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="G509" s="29"/>
       <c r="H509" s="34"/>
@@ -17858,12 +17855,12 @@
     <row r="510" spans="2:22">
       <c r="B510" s="32"/>
       <c r="C510" s="25" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D510" s="26"/>
       <c r="E510" s="27"/>
       <c r="F510" s="28" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G510" s="28" t="s">
         <v>59</v>
@@ -17879,7 +17876,7 @@
       <c r="P510" s="29"/>
       <c r="Q510" s="29"/>
       <c r="R510" s="29" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="S510" s="29"/>
       <c r="T510" s="29"/>
@@ -17889,12 +17886,12 @@
     <row r="511" spans="2:22">
       <c r="B511" s="32"/>
       <c r="C511" s="31" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D511" s="32"/>
       <c r="E511" s="33"/>
       <c r="F511" s="34" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G511" s="29"/>
       <c r="H511" s="34"/>
@@ -17916,12 +17913,12 @@
     <row r="512" spans="2:22">
       <c r="B512" s="32"/>
       <c r="C512" s="25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D512" s="26"/>
       <c r="E512" s="27"/>
       <c r="F512" s="28" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="G512" s="28" t="s">
         <v>59</v>
@@ -17937,7 +17934,7 @@
       <c r="P512" s="29"/>
       <c r="Q512" s="29"/>
       <c r="R512" s="29" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="S512" s="29"/>
       <c r="T512" s="29"/>
@@ -17947,12 +17944,12 @@
     <row r="513" spans="2:22">
       <c r="B513" s="32"/>
       <c r="C513" s="31" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D513" s="32"/>
       <c r="E513" s="33"/>
       <c r="F513" s="34" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G513" s="29"/>
       <c r="H513" s="34"/>
@@ -17974,12 +17971,12 @@
     <row r="514" ht="28.8" spans="2:22">
       <c r="B514" s="32"/>
       <c r="C514" s="25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D514" s="26"/>
       <c r="E514" s="27"/>
       <c r="F514" s="28" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="G514" s="28" t="s">
         <v>59</v>
@@ -17995,7 +17992,7 @@
       <c r="P514" s="29"/>
       <c r="Q514" s="29"/>
       <c r="R514" s="29" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="S514" s="29"/>
       <c r="T514" s="29"/>
@@ -18005,12 +18002,12 @@
     <row r="515" spans="2:22">
       <c r="B515" s="32"/>
       <c r="C515" s="43" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D515" s="32"/>
       <c r="E515" s="33"/>
       <c r="F515" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G515" s="29"/>
       <c r="H515" s="34"/>
@@ -18054,15 +18051,15 @@
     </row>
     <row r="517" spans="2:22">
       <c r="B517" s="42" t="s">
+        <v>600</v>
+      </c>
+      <c r="C517" s="25" t="s">
         <v>601</v>
-      </c>
-      <c r="C517" s="25" t="s">
-        <v>602</v>
       </c>
       <c r="D517" s="26"/>
       <c r="E517" s="27"/>
       <c r="F517" s="28" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="G517" s="28" t="s">
         <v>59</v>
@@ -18078,7 +18075,7 @@
       <c r="P517" s="29"/>
       <c r="Q517" s="29"/>
       <c r="R517" s="29" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="S517" s="29"/>
       <c r="T517" s="29"/>
@@ -18087,15 +18084,15 @@
     </row>
     <row r="518" ht="28.8" spans="2:22">
       <c r="B518" s="30" t="s">
+        <v>603</v>
+      </c>
+      <c r="C518" s="31" t="s">
         <v>604</v>
-      </c>
-      <c r="C518" s="31" t="s">
-        <v>605</v>
       </c>
       <c r="D518" s="32"/>
       <c r="E518" s="33"/>
       <c r="F518" s="34" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G518" s="29"/>
       <c r="H518" s="34"/>
@@ -18117,14 +18114,14 @@
     <row r="519" spans="2:22">
       <c r="B519" s="32"/>
       <c r="C519" s="25" t="s">
+        <v>605</v>
+      </c>
+      <c r="D519" s="45" t="s">
         <v>606</v>
-      </c>
-      <c r="D519" s="45" t="s">
-        <v>607</v>
       </c>
       <c r="E519" s="27"/>
       <c r="F519" s="26" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G519" s="28" t="s">
         <v>59</v>
@@ -18140,7 +18137,7 @@
       <c r="P519" s="29"/>
       <c r="Q519" s="29"/>
       <c r="R519" s="29" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="S519" s="29"/>
       <c r="T519" s="29"/>
@@ -18150,14 +18147,14 @@
     <row r="520" spans="2:22">
       <c r="B520" s="32"/>
       <c r="C520" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="D520" s="62" t="s">
         <v>608</v>
-      </c>
-      <c r="D520" s="62" t="s">
-        <v>609</v>
       </c>
       <c r="E520" s="33"/>
       <c r="F520" s="44" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G520" s="29"/>
       <c r="H520" s="34"/>
@@ -18180,11 +18177,11 @@
       <c r="B521" s="32"/>
       <c r="C521" s="29"/>
       <c r="D521" s="45" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E521" s="27"/>
       <c r="F521" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G521" s="28" t="s">
         <v>59</v>
@@ -18200,7 +18197,7 @@
       <c r="P521" s="29"/>
       <c r="Q521" s="29"/>
       <c r="R521" s="29" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="S521" s="29"/>
       <c r="T521" s="29"/>
@@ -18211,11 +18208,11 @@
       <c r="B522" s="32"/>
       <c r="C522" s="29"/>
       <c r="D522" s="46" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E522" s="33"/>
       <c r="F522" s="44" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G522" s="29"/>
       <c r="H522" s="34"/>
@@ -18237,12 +18234,12 @@
     <row r="523" spans="2:22">
       <c r="B523" s="32"/>
       <c r="C523" s="25" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D523" s="32"/>
       <c r="E523" s="27"/>
       <c r="F523" s="28" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="G523" s="28" t="s">
         <v>59</v>
@@ -18258,7 +18255,7 @@
       <c r="P523" s="29"/>
       <c r="Q523" s="29"/>
       <c r="R523" s="29" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="S523" s="29"/>
       <c r="T523" s="29"/>
@@ -18268,12 +18265,12 @@
     <row r="524" spans="2:22">
       <c r="B524" s="32"/>
       <c r="C524" s="43" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D524" s="32"/>
       <c r="E524" s="33"/>
       <c r="F524" s="34" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G524" s="29"/>
       <c r="H524" s="34"/>
@@ -18317,15 +18314,15 @@
     </row>
     <row r="526" spans="2:22">
       <c r="B526" s="42" t="s">
+        <v>613</v>
+      </c>
+      <c r="C526" s="25" t="s">
         <v>614</v>
-      </c>
-      <c r="C526" s="25" t="s">
-        <v>615</v>
       </c>
       <c r="D526" s="26"/>
       <c r="E526" s="27"/>
       <c r="F526" s="28" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G526" s="28" t="s">
         <v>59</v>
@@ -18350,15 +18347,15 @@
     </row>
     <row r="527" spans="2:22">
       <c r="B527" s="30" t="s">
+        <v>615</v>
+      </c>
+      <c r="C527" s="31" t="s">
         <v>616</v>
-      </c>
-      <c r="C527" s="31" t="s">
-        <v>617</v>
       </c>
       <c r="D527" s="32"/>
       <c r="E527" s="33"/>
       <c r="F527" s="34" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G527" s="29"/>
       <c r="H527" s="34"/>
@@ -18380,12 +18377,12 @@
     <row r="528" ht="28.8" spans="2:22">
       <c r="B528" s="32"/>
       <c r="C528" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D528" s="26"/>
       <c r="E528" s="27"/>
       <c r="F528" s="28" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G528" s="28" t="s">
         <v>59</v>
@@ -18401,7 +18398,7 @@
       <c r="P528" s="29"/>
       <c r="Q528" s="29"/>
       <c r="R528" s="29" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="S528" s="29"/>
       <c r="T528" s="29"/>
@@ -18411,12 +18408,12 @@
     <row r="529" spans="2:22">
       <c r="B529" s="32"/>
       <c r="C529" s="43" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D529" s="32"/>
       <c r="E529" s="33"/>
       <c r="F529" s="34" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G529" s="29"/>
       <c r="H529" s="34"/>
@@ -18438,12 +18435,12 @@
     <row r="530" spans="2:22">
       <c r="B530" s="32"/>
       <c r="C530" s="25" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D530" s="26"/>
       <c r="E530" s="27"/>
       <c r="F530" s="28" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G530" s="28" t="s">
         <v>59</v>
@@ -18469,12 +18466,12 @@
     <row r="531" spans="2:22">
       <c r="B531" s="32"/>
       <c r="C531" s="31" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D531" s="32"/>
       <c r="E531" s="33"/>
       <c r="F531" s="34" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G531" s="29"/>
       <c r="H531" s="34"/>
@@ -18496,12 +18493,12 @@
     <row r="532" spans="2:22">
       <c r="B532" s="32"/>
       <c r="C532" s="25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D532" s="26"/>
       <c r="E532" s="27"/>
       <c r="F532" s="28" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G532" s="28" t="s">
         <v>59</v>
@@ -18527,12 +18524,12 @@
     <row r="533" ht="28.8" spans="2:22">
       <c r="B533" s="32"/>
       <c r="C533" s="31" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D533" s="32"/>
       <c r="E533" s="33"/>
       <c r="F533" s="34" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G533" s="29"/>
       <c r="H533" s="34"/>
@@ -18554,12 +18551,12 @@
     <row r="534" ht="28.8" spans="2:22">
       <c r="B534" s="32"/>
       <c r="C534" s="25" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D534" s="26"/>
       <c r="E534" s="27"/>
       <c r="F534" s="28" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G534" s="28" t="s">
         <v>59</v>
@@ -18585,12 +18582,12 @@
     <row r="535" ht="28.8" spans="2:22">
       <c r="B535" s="32"/>
       <c r="C535" s="31" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D535" s="32"/>
       <c r="E535" s="33"/>
       <c r="F535" s="34" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G535" s="29"/>
       <c r="H535" s="34"/>
@@ -18612,12 +18609,12 @@
     <row r="536" spans="2:22">
       <c r="B536" s="32"/>
       <c r="C536" s="53" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D536" s="26"/>
       <c r="E536" s="27"/>
       <c r="F536" s="29" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G536" s="28" t="s">
         <v>59</v>
@@ -18643,12 +18640,12 @@
     <row r="537" spans="2:22">
       <c r="B537" s="32"/>
       <c r="C537" s="53" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D537" s="32"/>
       <c r="E537" s="33"/>
       <c r="F537" s="29" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G537" s="29"/>
       <c r="H537" s="34"/>
@@ -18692,15 +18689,15 @@
     </row>
     <row r="539" spans="2:22">
       <c r="B539" s="42" t="s">
+        <v>628</v>
+      </c>
+      <c r="C539" s="25" t="s">
         <v>629</v>
-      </c>
-      <c r="C539" s="25" t="s">
-        <v>630</v>
       </c>
       <c r="D539" s="26"/>
       <c r="E539" s="27"/>
       <c r="F539" s="28" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G539" s="28" t="s">
         <v>59</v>
@@ -18716,7 +18713,7 @@
       <c r="P539" s="29"/>
       <c r="Q539" s="29"/>
       <c r="R539" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S539" s="29"/>
       <c r="T539" s="29"/>
@@ -18725,15 +18722,15 @@
     </row>
     <row r="540" spans="2:22">
       <c r="B540" s="30" t="s">
+        <v>630</v>
+      </c>
+      <c r="C540" s="43" t="s">
         <v>631</v>
-      </c>
-      <c r="C540" s="43" t="s">
-        <v>632</v>
       </c>
       <c r="D540" s="32"/>
       <c r="E540" s="33"/>
       <c r="F540" s="34" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G540" s="29"/>
       <c r="H540" s="34"/>
@@ -18755,12 +18752,12 @@
     <row r="541" spans="2:22">
       <c r="B541" s="32"/>
       <c r="C541" s="25" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D541" s="26"/>
       <c r="E541" s="27"/>
       <c r="F541" s="28" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G541" s="28" t="s">
         <v>59</v>
@@ -18776,7 +18773,7 @@
       <c r="P541" s="29"/>
       <c r="Q541" s="29"/>
       <c r="R541" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S541" s="29"/>
       <c r="T541" s="29"/>
@@ -18786,12 +18783,12 @@
     <row r="542" spans="2:22">
       <c r="B542" s="32"/>
       <c r="C542" s="43" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D542" s="32"/>
       <c r="E542" s="33"/>
       <c r="F542" s="34" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G542" s="29"/>
       <c r="H542" s="34"/>
@@ -18813,12 +18810,12 @@
     <row r="543" spans="2:22">
       <c r="B543" s="32"/>
       <c r="C543" s="25" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D543" s="26"/>
       <c r="E543" s="27"/>
       <c r="F543" s="28" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="G543" s="28" t="s">
         <v>59</v>
@@ -18834,7 +18831,7 @@
       <c r="P543" s="29"/>
       <c r="Q543" s="29"/>
       <c r="R543" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="S543" s="29"/>
       <c r="T543" s="29"/>
@@ -18844,12 +18841,12 @@
     <row r="544" spans="2:22">
       <c r="B544" s="32"/>
       <c r="C544" s="31" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D544" s="32"/>
       <c r="E544" s="33"/>
       <c r="F544" s="34" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G544" s="29"/>
       <c r="H544" s="34"/>
@@ -18871,7 +18868,7 @@
     <row r="545" outlineLevel="1" spans="2:22">
       <c r="B545" s="32"/>
       <c r="C545" s="25" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D545" s="26"/>
       <c r="E545" s="63"/>
@@ -18896,7 +18893,7 @@
     <row r="546" outlineLevel="1" spans="2:22">
       <c r="B546" s="32"/>
       <c r="C546" s="31" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D546" s="32"/>
       <c r="E546" s="67"/>
@@ -18943,18 +18940,18 @@
     </row>
     <row r="548" ht="16.8" spans="1:22">
       <c r="A548" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B548" s="42" t="s">
+        <v>638</v>
+      </c>
+      <c r="C548" s="25" t="s">
         <v>639</v>
-      </c>
-      <c r="C548" s="25" t="s">
-        <v>640</v>
       </c>
       <c r="D548" s="26"/>
       <c r="E548" s="27"/>
       <c r="F548" s="28" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="G548" s="28" t="s">
         <v>59</v>
@@ -18970,7 +18967,7 @@
       <c r="P548" s="29"/>
       <c r="Q548" s="29"/>
       <c r="R548" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="S548" s="29"/>
       <c r="T548" s="29"/>
@@ -18979,15 +18976,15 @@
     </row>
     <row r="549" spans="2:22">
       <c r="B549" s="30" t="s">
+        <v>641</v>
+      </c>
+      <c r="C549" s="43" t="s">
         <v>642</v>
-      </c>
-      <c r="C549" s="43" t="s">
-        <v>643</v>
       </c>
       <c r="D549" s="32"/>
       <c r="E549" s="33"/>
       <c r="F549" s="34" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="G549" s="29"/>
       <c r="H549" s="34"/>
@@ -19009,12 +19006,12 @@
     <row r="550" spans="2:22">
       <c r="B550" s="32"/>
       <c r="C550" s="25" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D550" s="26"/>
       <c r="E550" s="27"/>
       <c r="F550" s="28" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="G550" s="28" t="s">
         <v>59</v>
@@ -19030,7 +19027,7 @@
       <c r="P550" s="29"/>
       <c r="Q550" s="29"/>
       <c r="R550" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="S550" s="29"/>
       <c r="T550" s="29"/>
@@ -19040,12 +19037,12 @@
     <row r="551" spans="2:22">
       <c r="B551" s="32"/>
       <c r="C551" s="43" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D551" s="32"/>
       <c r="E551" s="33"/>
       <c r="F551" s="34" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="G551" s="29"/>
       <c r="H551" s="34"/>
@@ -19067,12 +19064,12 @@
     <row r="552" ht="28.8" spans="2:22">
       <c r="B552" s="32"/>
       <c r="C552" s="25" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D552" s="26"/>
       <c r="E552" s="27"/>
       <c r="F552" s="28" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="G552" s="28" t="s">
         <v>59</v>
@@ -19088,7 +19085,7 @@
       <c r="P552" s="29"/>
       <c r="Q552" s="29"/>
       <c r="R552" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="S552" s="29"/>
       <c r="T552" s="29"/>
@@ -19098,12 +19095,12 @@
     <row r="553" spans="2:22">
       <c r="B553" s="32"/>
       <c r="C553" s="43" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D553" s="32"/>
       <c r="E553" s="33"/>
       <c r="F553" s="34" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="G553" s="29"/>
       <c r="H553" s="34"/>
@@ -19125,12 +19122,12 @@
     <row r="554" spans="2:22">
       <c r="B554" s="32"/>
       <c r="C554" s="25" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D554" s="26"/>
       <c r="E554" s="27"/>
       <c r="F554" s="28" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="G554" s="28" t="s">
         <v>59</v>
@@ -19146,7 +19143,7 @@
       <c r="P554" s="29"/>
       <c r="Q554" s="29"/>
       <c r="R554" s="29" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="S554" s="29"/>
       <c r="T554" s="29"/>
@@ -19156,12 +19153,12 @@
     <row r="555" spans="2:22">
       <c r="B555" s="32"/>
       <c r="C555" s="43" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D555" s="32"/>
       <c r="E555" s="33"/>
       <c r="F555" s="34" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G555" s="29"/>
       <c r="H555" s="34"/>
@@ -19205,16 +19202,16 @@
     </row>
     <row r="557" ht="28.8" spans="1:22">
       <c r="A557" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B557" s="42" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C557" s="29"/>
       <c r="D557" s="32"/>
       <c r="E557" s="27"/>
       <c r="F557" s="26" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G557" s="29" t="s">
         <v>59</v>
@@ -19239,13 +19236,13 @@
     </row>
     <row r="558" ht="28.8" spans="2:22">
       <c r="B558" s="62" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C558" s="29"/>
       <c r="D558" s="32"/>
       <c r="E558" s="33"/>
       <c r="F558" s="44" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G558" s="29"/>
       <c r="H558" s="34"/>
@@ -19289,15 +19286,15 @@
     </row>
     <row r="560" ht="28.8" spans="2:22">
       <c r="B560" s="42" t="s">
+        <v>651</v>
+      </c>
+      <c r="C560" s="25" t="s">
         <v>652</v>
-      </c>
-      <c r="C560" s="25" t="s">
-        <v>653</v>
       </c>
       <c r="D560" s="26"/>
       <c r="E560" s="27"/>
       <c r="F560" s="28" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G560" s="28" t="s">
         <v>59</v>
@@ -19313,7 +19310,7 @@
       <c r="P560" s="29"/>
       <c r="Q560" s="29"/>
       <c r="R560" s="29" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="S560" s="29"/>
       <c r="T560" s="29"/>
@@ -19322,15 +19319,15 @@
     </row>
     <row r="561" ht="28.8" spans="2:22">
       <c r="B561" s="30" t="s">
+        <v>654</v>
+      </c>
+      <c r="C561" s="31" t="s">
         <v>655</v>
-      </c>
-      <c r="C561" s="31" t="s">
-        <v>656</v>
       </c>
       <c r="D561" s="32"/>
       <c r="E561" s="33"/>
       <c r="F561" s="34" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="G561" s="29"/>
       <c r="H561" s="34"/>
@@ -19352,12 +19349,12 @@
     <row r="562" ht="28.8" spans="2:22">
       <c r="B562" s="32"/>
       <c r="C562" s="25" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D562" s="26"/>
       <c r="E562" s="27"/>
       <c r="F562" s="28" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="G562" s="28" t="s">
         <v>59</v>
@@ -19373,7 +19370,7 @@
       <c r="P562" s="29"/>
       <c r="Q562" s="29"/>
       <c r="R562" s="29" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="S562" s="29"/>
       <c r="T562" s="29"/>
@@ -19383,12 +19380,12 @@
     <row r="563" ht="28.8" spans="2:22">
       <c r="B563" s="32"/>
       <c r="C563" s="31" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D563" s="32"/>
       <c r="E563" s="33"/>
       <c r="F563" s="34" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="G563" s="29"/>
       <c r="H563" s="34"/>
@@ -19432,18 +19429,18 @@
     </row>
     <row r="565" ht="43.2" spans="1:22">
       <c r="A565" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B565" s="42" t="s">
+        <v>658</v>
+      </c>
+      <c r="C565" s="25" t="s">
         <v>659</v>
-      </c>
-      <c r="C565" s="25" t="s">
-        <v>660</v>
       </c>
       <c r="D565" s="26"/>
       <c r="E565" s="27"/>
       <c r="F565" s="28" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G565" s="28" t="s">
         <v>59</v>
@@ -19459,7 +19456,7 @@
       <c r="P565" s="29"/>
       <c r="Q565" s="29"/>
       <c r="R565" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="S565" s="29"/>
       <c r="T565" s="29"/>
@@ -19468,15 +19465,15 @@
     </row>
     <row r="566" ht="28.8" spans="2:22">
       <c r="B566" s="30" t="s">
+        <v>661</v>
+      </c>
+      <c r="C566" s="43" t="s">
         <v>662</v>
-      </c>
-      <c r="C566" s="43" t="s">
-        <v>663</v>
       </c>
       <c r="D566" s="32"/>
       <c r="E566" s="33"/>
       <c r="F566" s="34" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G566" s="29"/>
       <c r="H566" s="34"/>
@@ -19498,12 +19495,12 @@
     <row r="567" ht="43.2" spans="2:22">
       <c r="B567" s="32"/>
       <c r="C567" s="25" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D567" s="26"/>
       <c r="E567" s="27"/>
       <c r="F567" s="28" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G567" s="28" t="s">
         <v>59</v>
@@ -19519,7 +19516,7 @@
       <c r="P567" s="29"/>
       <c r="Q567" s="29"/>
       <c r="R567" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="S567" s="29"/>
       <c r="T567" s="29"/>
@@ -19529,12 +19526,12 @@
     <row r="568" ht="28.8" spans="2:22">
       <c r="B568" s="32"/>
       <c r="C568" s="43" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D568" s="32"/>
       <c r="E568" s="33"/>
       <c r="F568" s="34" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G568" s="29"/>
       <c r="H568" s="34"/>
@@ -19578,16 +19575,16 @@
     </row>
     <row r="570" ht="28.8" spans="1:22">
       <c r="A570" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B570" s="42" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C570" s="29"/>
       <c r="D570" s="32"/>
       <c r="E570" s="27"/>
       <c r="F570" s="26" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="G570" s="29" t="s">
         <v>59</v>
@@ -19603,7 +19600,7 @@
       <c r="P570" s="29"/>
       <c r="Q570" s="29"/>
       <c r="R570" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="S570" s="29"/>
       <c r="T570" s="29"/>
@@ -19612,13 +19609,13 @@
     </row>
     <row r="571" ht="28.8" spans="2:22">
       <c r="B571" s="62" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C571" s="29"/>
       <c r="D571" s="32"/>
       <c r="E571" s="33"/>
       <c r="F571" s="44" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G571" s="29"/>
       <c r="H571" s="34"/>
@@ -19662,16 +19659,16 @@
     </row>
     <row r="573" ht="28.8" spans="1:22">
       <c r="A573" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B573" s="42" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C573" s="29"/>
       <c r="D573" s="32"/>
       <c r="E573" s="27"/>
       <c r="F573" s="26" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G573" s="29" t="s">
         <v>59</v>
@@ -19687,7 +19684,7 @@
       <c r="P573" s="29"/>
       <c r="Q573" s="29"/>
       <c r="R573" s="29" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="S573" s="29"/>
       <c r="T573" s="29"/>
@@ -19696,13 +19693,13 @@
     </row>
     <row r="574" spans="2:22">
       <c r="B574" s="62" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C574" s="29"/>
       <c r="D574" s="32"/>
       <c r="E574" s="33"/>
       <c r="F574" s="44" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="G574" s="29"/>
       <c r="H574" s="34"/>
@@ -19746,7 +19743,7 @@
     </row>
     <row r="576" ht="28.8" outlineLevel="1" spans="2:22">
       <c r="B576" s="42" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C576" s="29"/>
       <c r="D576" s="32"/>
@@ -19771,7 +19768,7 @@
     </row>
     <row r="577" outlineLevel="1" spans="2:22">
       <c r="B577" s="30" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C577" s="29"/>
       <c r="D577" s="32"/>
@@ -19797,7 +19794,7 @@
     <row r="578" outlineLevel="1" spans="2:22">
       <c r="B578" s="32"/>
       <c r="C578" s="25" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D578" s="26"/>
       <c r="E578" s="63"/>
@@ -19822,7 +19819,7 @@
     <row r="579" outlineLevel="1" spans="2:22">
       <c r="B579" s="32"/>
       <c r="C579" s="31" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D579" s="32"/>
       <c r="E579" s="67"/>
@@ -19869,7 +19866,7 @@
     </row>
     <row r="581" outlineLevel="1" spans="2:22">
       <c r="B581" s="42" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C581" s="29"/>
       <c r="D581" s="32"/>
@@ -19894,7 +19891,7 @@
     </row>
     <row r="582" outlineLevel="1" spans="2:22">
       <c r="B582" s="30" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C582" s="34"/>
       <c r="D582" s="44"/>
